--- a/apps/load_data/2024/06/PLMOVMAE.xlsx
+++ b/apps/load_data/2024/06/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2024\HHY0624\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\HHY0624\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E37CB71F-010F-4FCE-BD82-CE3ED8A307F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E4C8CC-73B6-47FE-9810-738487A4F988}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CJ$290</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CJ$290</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12390" uniqueCount="3424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12371" uniqueCount="3421">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6583,9 +6584,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -7729,9 +7727,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -7982,9 +7977,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -10300,7 +10292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -11140,10 +11132,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CJ290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC297" sqref="AC297"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -41672,12 +41666,7 @@
       <c r="AB165" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC165" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD165" s="1" t="s">
-        <v>2186</v>
-      </c>
+      <c r="AC165" s="3"/>
       <c r="AF165" s="1" t="s">
         <v>107</v>
       </c>
@@ -41730,16 +41719,16 @@
         <v>24</v>
       </c>
       <c r="BD165" s="1" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="BG165" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH165" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="BI165" s="1" t="s">
         <v>2188</v>
-      </c>
-      <c r="BI165" s="1" t="s">
-        <v>2189</v>
       </c>
       <c r="BN165" s="1" t="s">
         <v>117</v>
@@ -41754,13 +41743,13 @@
         <v>163</v>
       </c>
       <c r="BS165" s="1" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="BT165" s="3">
         <v>36225</v>
       </c>
       <c r="BU165" s="1" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="BV165" s="1" t="s">
         <v>121</v>
@@ -41781,19 +41770,19 @@
         <v>102</v>
       </c>
       <c r="CD165" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="CE165" s="1" t="s">
         <v>2192</v>
       </c>
-      <c r="CE165" s="1" t="s">
+      <c r="CF165" s="1" t="s">
         <v>2193</v>
       </c>
-      <c r="CF165" s="1" t="s">
+      <c r="CH165" s="1" t="s">
         <v>2194</v>
       </c>
-      <c r="CH165" s="1" t="s">
+      <c r="CI165" s="1" t="s">
         <v>2195</v>
-      </c>
-      <c r="CI165" s="1" t="s">
-        <v>2196</v>
       </c>
       <c r="CJ165" s="1" t="s">
         <v>129</v>
@@ -41825,16 +41814,16 @@
         <v>95</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K166" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="L166" s="1" t="s">
         <v>2198</v>
-      </c>
-      <c r="L166" s="1" t="s">
-        <v>2199</v>
       </c>
       <c r="O166" s="1" t="s">
         <v>101</v>
@@ -41857,12 +41846,7 @@
       <c r="AB166" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="AC166" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD166" s="1" t="s">
-        <v>2186</v>
-      </c>
+      <c r="AC166" s="3"/>
       <c r="AF166" s="1" t="s">
         <v>107</v>
       </c>
@@ -41909,7 +41893,7 @@
         <v>102</v>
       </c>
       <c r="AZ166" s="1" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="BB166" s="1">
         <v>5</v>
@@ -41918,7 +41902,7 @@
         <v>22</v>
       </c>
       <c r="BD166" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="BN166" s="1" t="s">
         <v>117</v>
@@ -41945,7 +41929,7 @@
         <v>111</v>
       </c>
       <c r="CA166" s="1" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="CB166" s="1" t="s">
         <v>123</v>
@@ -41954,10 +41938,10 @@
         <v>102</v>
       </c>
       <c r="CD166" s="1" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="CH166" s="1" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="CI166" s="1" t="s">
         <v>129</v>
@@ -41998,13 +41982,13 @@
         <v>97</v>
       </c>
       <c r="K167" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="L167" s="1" t="s">
         <v>2204</v>
       </c>
-      <c r="L167" s="1" t="s">
+      <c r="N167" s="1" t="s">
         <v>2205</v>
-      </c>
-      <c r="N167" s="1" t="s">
-        <v>2206</v>
       </c>
       <c r="O167" s="1" t="s">
         <v>101</v>
@@ -42033,12 +42017,7 @@
       <c r="AA167" s="1">
         <v>0</v>
       </c>
-      <c r="AC167" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD167" s="1" t="s">
-        <v>2186</v>
-      </c>
+      <c r="AC167" s="3"/>
       <c r="AF167" s="1" t="s">
         <v>107</v>
       </c>
@@ -42088,7 +42067,7 @@
         <v>102</v>
       </c>
       <c r="AZ167" s="1" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="BB167" s="1">
         <v>6</v>
@@ -42097,13 +42076,13 @@
         <v>24</v>
       </c>
       <c r="BD167" s="1" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="BG167" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH167" s="1" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="BN167" s="1" t="s">
         <v>117</v>
@@ -42112,7 +42091,7 @@
         <v>106</v>
       </c>
       <c r="BU167" s="1" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="BV167" s="1" t="s">
         <v>121</v>
@@ -42130,16 +42109,16 @@
         <v>102</v>
       </c>
       <c r="CD167" s="1" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="CE167" s="1" t="s">
         <v>1195</v>
       </c>
       <c r="CF167" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="CH167" s="1" t="s">
         <v>2212</v>
-      </c>
-      <c r="CH167" s="1" t="s">
-        <v>2213</v>
       </c>
       <c r="CI167" s="1" t="s">
         <v>129</v>
@@ -42180,13 +42159,13 @@
         <v>97</v>
       </c>
       <c r="K168" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="L168" s="1" t="s">
         <v>2214</v>
       </c>
-      <c r="L168" s="1" t="s">
+      <c r="N168" s="1" t="s">
         <v>2215</v>
-      </c>
-      <c r="N168" s="1" t="s">
-        <v>2216</v>
       </c>
       <c r="O168" s="1" t="s">
         <v>101</v>
@@ -42218,12 +42197,7 @@
       <c r="AB168" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC168" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD168" s="1" t="s">
-        <v>2186</v>
-      </c>
+      <c r="AC168" s="3"/>
       <c r="AF168" s="1" t="s">
         <v>107</v>
       </c>
@@ -42273,7 +42247,7 @@
         <v>102</v>
       </c>
       <c r="AZ168" s="1" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="BB168" s="1">
         <v>6</v>
@@ -42282,13 +42256,13 @@
         <v>24</v>
       </c>
       <c r="BD168" s="1" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="BG168" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH168" s="1" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="BI168" s="1" t="s">
         <v>597</v>
@@ -42300,7 +42274,7 @@
         <v>106</v>
       </c>
       <c r="BU168" s="1" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="BV168" s="1" t="s">
         <v>121</v>
@@ -42321,13 +42295,13 @@
         <v>662</v>
       </c>
       <c r="CE168" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="CF168" s="1" t="s">
         <v>2221</v>
       </c>
-      <c r="CF168" s="1" t="s">
+      <c r="CH168" s="1" t="s">
         <v>2222</v>
-      </c>
-      <c r="CH168" s="1" t="s">
-        <v>2223</v>
       </c>
       <c r="CI168" s="1" t="s">
         <v>604</v>
@@ -42368,13 +42342,13 @@
         <v>97</v>
       </c>
       <c r="K169" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="L169" s="1" t="s">
         <v>2224</v>
       </c>
-      <c r="L169" s="1" t="s">
+      <c r="N169" s="1" t="s">
         <v>2225</v>
-      </c>
-      <c r="N169" s="1" t="s">
-        <v>2226</v>
       </c>
       <c r="O169" s="1" t="s">
         <v>101</v>
@@ -42403,12 +42377,7 @@
       <c r="AA169" s="1">
         <v>0</v>
       </c>
-      <c r="AC169" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD169" s="1" t="s">
-        <v>2186</v>
-      </c>
+      <c r="AC169" s="3"/>
       <c r="AF169" s="1" t="s">
         <v>107</v>
       </c>
@@ -42458,7 +42427,7 @@
         <v>102</v>
       </c>
       <c r="AZ169" s="1" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="BB169" s="1">
         <v>6</v>
@@ -42467,13 +42436,13 @@
         <v>24</v>
       </c>
       <c r="BD169" s="1" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="BG169" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH169" s="1" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="BI169" s="1" t="s">
         <v>569</v>
@@ -42485,7 +42454,7 @@
         <v>106</v>
       </c>
       <c r="BU169" s="1" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="BV169" s="1" t="s">
         <v>121</v>
@@ -42503,16 +42472,16 @@
         <v>102</v>
       </c>
       <c r="CD169" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="CE169" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="CF169" s="1" t="s">
         <v>2231</v>
       </c>
-      <c r="CE169" s="1" t="s">
-        <v>2231</v>
-      </c>
-      <c r="CF169" s="1" t="s">
+      <c r="CH169" s="1" t="s">
         <v>2232</v>
-      </c>
-      <c r="CH169" s="1" t="s">
-        <v>2233</v>
       </c>
       <c r="CI169" s="1" t="s">
         <v>576</v>
@@ -42553,13 +42522,13 @@
         <v>97</v>
       </c>
       <c r="K170" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="L170" s="1" t="s">
         <v>2234</v>
       </c>
-      <c r="L170" s="1" t="s">
+      <c r="N170" s="1" t="s">
         <v>2235</v>
-      </c>
-      <c r="N170" s="1" t="s">
-        <v>2236</v>
       </c>
       <c r="O170" s="1" t="s">
         <v>101</v>
@@ -42597,12 +42566,7 @@
       <c r="AB170" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC170" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD170" s="1" t="s">
-        <v>2186</v>
-      </c>
+      <c r="AC170" s="3"/>
       <c r="AF170" s="1" t="s">
         <v>107</v>
       </c>
@@ -42649,7 +42613,7 @@
         <v>102</v>
       </c>
       <c r="AZ170" s="1" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="BB170" s="1">
         <v>6</v>
@@ -42658,13 +42622,13 @@
         <v>24</v>
       </c>
       <c r="BD170" s="1" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="BG170" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH170" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="BI170" s="1" t="s">
         <v>412</v>
@@ -42679,13 +42643,13 @@
         <v>118</v>
       </c>
       <c r="BS170" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="BT170" s="3">
         <v>35243</v>
       </c>
       <c r="BU170" s="1" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="BV170" s="1" t="s">
         <v>121</v>
@@ -42703,16 +42667,16 @@
         <v>102</v>
       </c>
       <c r="CD170" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="CE170" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="CE170" s="1" t="s">
+      <c r="CF170" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="CF170" s="1" t="s">
+      <c r="CH170" s="1" t="s">
         <v>2244</v>
-      </c>
-      <c r="CH170" s="1" t="s">
-        <v>2245</v>
       </c>
       <c r="CI170" s="1" t="s">
         <v>419</v>
@@ -42753,13 +42717,13 @@
         <v>97</v>
       </c>
       <c r="K171" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="L171" s="1" t="s">
         <v>2246</v>
       </c>
-      <c r="L171" s="1" t="s">
+      <c r="N171" s="1" t="s">
         <v>2247</v>
-      </c>
-      <c r="N171" s="1" t="s">
-        <v>2248</v>
       </c>
       <c r="O171" s="1" t="s">
         <v>101</v>
@@ -42788,12 +42752,7 @@
       <c r="AA171" s="1">
         <v>0</v>
       </c>
-      <c r="AC171" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD171" s="1" t="s">
-        <v>2186</v>
-      </c>
+      <c r="AC171" s="3"/>
       <c r="AF171" s="1" t="s">
         <v>107</v>
       </c>
@@ -42843,7 +42802,7 @@
         <v>102</v>
       </c>
       <c r="AZ171" s="1" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="BB171" s="1">
         <v>6</v>
@@ -42852,13 +42811,13 @@
         <v>24</v>
       </c>
       <c r="BD171" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="BG171" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH171" s="1" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="BI171" s="1" t="s">
         <v>911</v>
@@ -42870,7 +42829,7 @@
         <v>106</v>
       </c>
       <c r="BU171" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="BV171" s="1" t="s">
         <v>121</v>
@@ -42888,16 +42847,16 @@
         <v>102</v>
       </c>
       <c r="CD171" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="CE171" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="CE171" s="1" t="s">
+      <c r="CF171" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="CF171" s="1" t="s">
+      <c r="CH171" s="1" t="s">
         <v>2255</v>
-      </c>
-      <c r="CH171" s="1" t="s">
-        <v>2256</v>
       </c>
       <c r="CI171" s="1" t="s">
         <v>916</v>
@@ -42938,13 +42897,13 @@
         <v>97</v>
       </c>
       <c r="K172" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="L172" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="L172" s="1" t="s">
+      <c r="N172" s="1" t="s">
         <v>2258</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>2259</v>
       </c>
       <c r="O172" s="1" t="s">
         <v>101</v>
@@ -42973,12 +42932,7 @@
       <c r="AA172" s="1">
         <v>0</v>
       </c>
-      <c r="AC172" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD172" s="1" t="s">
-        <v>2186</v>
-      </c>
+      <c r="AC172" s="3"/>
       <c r="AF172" s="1" t="s">
         <v>107</v>
       </c>
@@ -43028,7 +42982,7 @@
         <v>102</v>
       </c>
       <c r="AZ172" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="BB172" s="1">
         <v>6</v>
@@ -43037,13 +42991,13 @@
         <v>24</v>
       </c>
       <c r="BD172" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="BG172" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH172" s="1" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="BI172" s="1" t="s">
         <v>2133</v>
@@ -43058,7 +43012,7 @@
         <v>163</v>
       </c>
       <c r="BU172" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="BV172" s="1" t="s">
         <v>121</v>
@@ -43076,16 +43030,16 @@
         <v>102</v>
       </c>
       <c r="CD172" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="CE172" s="1" t="s">
         <v>2264</v>
       </c>
-      <c r="CE172" s="1" t="s">
+      <c r="CF172" s="1" t="s">
         <v>2265</v>
       </c>
-      <c r="CF172" s="1" t="s">
+      <c r="CH172" s="1" t="s">
         <v>2266</v>
-      </c>
-      <c r="CH172" s="1" t="s">
-        <v>2267</v>
       </c>
       <c r="CI172" s="1" t="s">
         <v>2136</v>
@@ -43126,13 +43080,13 @@
         <v>97</v>
       </c>
       <c r="K173" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>2268</v>
       </c>
-      <c r="L173" s="1" t="s">
+      <c r="N173" s="1" t="s">
         <v>2269</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>2270</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>101</v>
@@ -43164,12 +43118,7 @@
       <c r="AA173" s="1">
         <v>0</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2186</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>107</v>
       </c>
@@ -43219,7 +43168,7 @@
         <v>102</v>
       </c>
       <c r="AZ173" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="BB173" s="1">
         <v>6</v>
@@ -43228,13 +43177,13 @@
         <v>24</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="BG173" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH173" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="BN173" s="1" t="s">
         <v>117</v>
@@ -43243,7 +43192,7 @@
         <v>106</v>
       </c>
       <c r="BU173" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="BV173" s="1" t="s">
         <v>121</v>
@@ -43264,16 +43213,16 @@
         <v>102</v>
       </c>
       <c r="CD173" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="CE173" s="1" t="s">
         <v>2275</v>
       </c>
-      <c r="CE173" s="1" t="s">
+      <c r="CF173" s="1" t="s">
         <v>2276</v>
       </c>
-      <c r="CF173" s="1" t="s">
+      <c r="CH173" s="1" t="s">
         <v>2277</v>
-      </c>
-      <c r="CH173" s="1" t="s">
-        <v>2278</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>129</v>
@@ -43314,13 +43263,13 @@
         <v>97</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2279</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2280</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2281</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>101</v>
@@ -43349,12 +43298,7 @@
       <c r="AA174" s="1">
         <v>0</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2186</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>107</v>
       </c>
@@ -43401,7 +43345,7 @@
         <v>102</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="BB174" s="1">
         <v>6</v>
@@ -43410,16 +43354,16 @@
         <v>24</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH174" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="BI174" s="1" t="s">
         <v>2284</v>
-      </c>
-      <c r="BI174" s="1" t="s">
-        <v>2285</v>
       </c>
       <c r="BN174" s="1" t="s">
         <v>117</v>
@@ -43431,13 +43375,13 @@
         <v>118</v>
       </c>
       <c r="BS174" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="BT174" s="3">
         <v>35950</v>
       </c>
       <c r="BU174" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="BV174" s="1" t="s">
         <v>121</v>
@@ -43455,19 +43399,19 @@
         <v>102</v>
       </c>
       <c r="CD174" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="CE174" s="1" t="s">
         <v>2288</v>
       </c>
-      <c r="CE174" s="1" t="s">
+      <c r="CF174" s="1" t="s">
         <v>2289</v>
       </c>
-      <c r="CF174" s="1" t="s">
+      <c r="CH174" s="1" t="s">
         <v>2290</v>
       </c>
-      <c r="CH174" s="1" t="s">
+      <c r="CI174" s="1" t="s">
         <v>2291</v>
-      </c>
-      <c r="CI174" s="1" t="s">
-        <v>2292</v>
       </c>
       <c r="CJ174" s="1" t="s">
         <v>129</v>
@@ -43505,13 +43449,13 @@
         <v>97</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2293</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2294</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2295</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>101</v>
@@ -43592,7 +43536,7 @@
         <v>102</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="BB175" s="1">
         <v>6</v>
@@ -43601,16 +43545,16 @@
         <v>24</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH175" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="BI175" s="1" t="s">
         <v>2298</v>
-      </c>
-      <c r="BI175" s="1" t="s">
-        <v>2299</v>
       </c>
       <c r="BN175" s="1" t="s">
         <v>117</v>
@@ -43622,7 +43566,7 @@
         <v>163</v>
       </c>
       <c r="BU175" s="1" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="BV175" s="1" t="s">
         <v>121</v>
@@ -43640,19 +43584,19 @@
         <v>102</v>
       </c>
       <c r="CD175" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="CE175" s="1" t="s">
         <v>416</v>
       </c>
       <c r="CF175" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="CH175" s="1" t="s">
         <v>2302</v>
       </c>
-      <c r="CH175" s="1" t="s">
+      <c r="CI175" s="1" t="s">
         <v>2303</v>
-      </c>
-      <c r="CI175" s="1" t="s">
-        <v>2304</v>
       </c>
       <c r="CJ175" s="1" t="s">
         <v>129</v>
@@ -43690,13 +43634,13 @@
         <v>97</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2305</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2306</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2307</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>101</v>
@@ -43771,7 +43715,7 @@
         <v>102</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="BB176" s="1">
         <v>6</v>
@@ -43780,16 +43724,16 @@
         <v>24</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH176" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="BI176" s="1" t="s">
         <v>2310</v>
-      </c>
-      <c r="BI176" s="1" t="s">
-        <v>2311</v>
       </c>
       <c r="BN176" s="1" t="s">
         <v>117</v>
@@ -43801,13 +43745,13 @@
         <v>228</v>
       </c>
       <c r="BS176" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="BT176" s="3">
         <v>36099</v>
       </c>
       <c r="BU176" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="BV176" s="1" t="s">
         <v>121</v>
@@ -43825,19 +43769,19 @@
         <v>102</v>
       </c>
       <c r="CD176" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="CE176" s="1" t="s">
         <v>2314</v>
       </c>
-      <c r="CE176" s="1" t="s">
+      <c r="CF176" s="1" t="s">
         <v>2315</v>
       </c>
-      <c r="CF176" s="1" t="s">
+      <c r="CH176" s="1" t="s">
         <v>2316</v>
       </c>
-      <c r="CH176" s="1" t="s">
+      <c r="CI176" s="1" t="s">
         <v>2317</v>
-      </c>
-      <c r="CI176" s="1" t="s">
-        <v>2318</v>
       </c>
       <c r="CJ176" s="1" t="s">
         <v>129</v>
@@ -43875,13 +43819,13 @@
         <v>97</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2319</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2320</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2321</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>101</v>
@@ -43956,7 +43900,7 @@
         <v>102</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="BB177" s="1">
         <v>6</v>
@@ -43965,16 +43909,16 @@
         <v>24</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH177" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="BI177" s="1" t="s">
         <v>2324</v>
-      </c>
-      <c r="BI177" s="1" t="s">
-        <v>2325</v>
       </c>
       <c r="BN177" s="1" t="s">
         <v>117</v>
@@ -43986,13 +43930,13 @@
         <v>103</v>
       </c>
       <c r="BS177" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="BT177" s="3">
         <v>37735</v>
       </c>
       <c r="BU177" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BV177" s="1" t="s">
         <v>121</v>
@@ -44010,19 +43954,19 @@
         <v>102</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2328</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CF177" s="1" t="s">
         <v>2329</v>
       </c>
-      <c r="CF177" s="1" t="s">
+      <c r="CH177" s="1" t="s">
         <v>2330</v>
       </c>
-      <c r="CH177" s="1" t="s">
+      <c r="CI177" s="1" t="s">
         <v>2331</v>
-      </c>
-      <c r="CI177" s="1" t="s">
-        <v>2332</v>
       </c>
       <c r="CJ177" s="1" t="s">
         <v>129</v>
@@ -44060,13 +44004,13 @@
         <v>97</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2333</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2334</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2335</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>101</v>
@@ -44144,7 +44088,7 @@
         <v>102</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="BB178" s="1">
         <v>6</v>
@@ -44153,13 +44097,13 @@
         <v>24</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BI178" s="1" t="s">
         <v>373</v>
@@ -44171,7 +44115,7 @@
         <v>106</v>
       </c>
       <c r="BU178" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="BV178" s="1" t="s">
         <v>121</v>
@@ -44189,16 +44133,16 @@
         <v>102</v>
       </c>
       <c r="CD178" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="CE178" s="1" t="s">
         <v>840</v>
       </c>
       <c r="CF178" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="CH178" s="1" t="s">
         <v>2341</v>
-      </c>
-      <c r="CH178" s="1" t="s">
-        <v>2342</v>
       </c>
       <c r="CI178" s="1" t="s">
         <v>380</v>
@@ -44239,13 +44183,13 @@
         <v>97</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2343</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2344</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2345</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>101</v>
@@ -44281,10 +44225,10 @@
         <v>107</v>
       </c>
       <c r="AG179" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="AH179" s="1" t="s">
         <v>2346</v>
-      </c>
-      <c r="AH179" s="1" t="s">
-        <v>2347</v>
       </c>
       <c r="AI179" s="1" t="s">
         <v>102</v>
@@ -44326,7 +44270,7 @@
         <v>102</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BB179" s="1">
         <v>6</v>
@@ -44335,13 +44279,13 @@
         <v>24</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="BN179" s="1" t="s">
         <v>117</v>
@@ -44350,7 +44294,7 @@
         <v>106</v>
       </c>
       <c r="BU179" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="BV179" s="1" t="s">
         <v>121</v>
@@ -44371,13 +44315,13 @@
         <v>1545</v>
       </c>
       <c r="CE179" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="CF179" s="1" t="s">
         <v>2352</v>
       </c>
-      <c r="CF179" s="1" t="s">
+      <c r="CH179" s="1" t="s">
         <v>2353</v>
-      </c>
-      <c r="CH179" s="1" t="s">
-        <v>2354</v>
       </c>
       <c r="CI179" s="1" t="s">
         <v>129</v>
@@ -44418,16 +44362,16 @@
         <v>97</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2355</v>
-      </c>
-      <c r="L180" s="1" t="s">
-        <v>2356</v>
       </c>
       <c r="M180" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>101</v>
@@ -44505,7 +44449,7 @@
         <v>102</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BB180" s="1">
         <v>6</v>
@@ -44514,16 +44458,16 @@
         <v>24</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH180" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="BI180" s="1" t="s">
         <v>2360</v>
-      </c>
-      <c r="BI180" s="1" t="s">
-        <v>2361</v>
       </c>
       <c r="BN180" s="1" t="s">
         <v>117</v>
@@ -44535,13 +44479,13 @@
         <v>103</v>
       </c>
       <c r="BS180" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="BT180" s="3">
         <v>43602</v>
       </c>
       <c r="BU180" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="BV180" s="1" t="s">
         <v>121</v>
@@ -44565,13 +44509,13 @@
         <v>925</v>
       </c>
       <c r="CF180" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="CH180" s="1" t="s">
         <v>2364</v>
       </c>
-      <c r="CH180" s="1" t="s">
+      <c r="CI180" s="1" t="s">
         <v>2365</v>
-      </c>
-      <c r="CI180" s="1" t="s">
-        <v>2366</v>
       </c>
       <c r="CJ180" s="1" t="s">
         <v>129</v>
@@ -44609,13 +44553,13 @@
         <v>97</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2367</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2368</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2369</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>101</v>
@@ -44693,7 +44637,7 @@
         <v>102</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="BB181" s="1">
         <v>6</v>
@@ -44702,13 +44646,13 @@
         <v>24</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH181" s="1" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="BI181" s="1" t="s">
         <v>911</v>
@@ -44720,7 +44664,7 @@
         <v>106</v>
       </c>
       <c r="BU181" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="BV181" s="1" t="s">
         <v>121</v>
@@ -44738,16 +44682,16 @@
         <v>102</v>
       </c>
       <c r="CD181" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="CE181" s="1" t="s">
         <v>2374</v>
       </c>
-      <c r="CE181" s="1" t="s">
+      <c r="CF181" s="1" t="s">
         <v>2375</v>
       </c>
-      <c r="CF181" s="1" t="s">
+      <c r="CH181" s="1" t="s">
         <v>2376</v>
-      </c>
-      <c r="CH181" s="1" t="s">
-        <v>2377</v>
       </c>
       <c r="CI181" s="1" t="s">
         <v>916</v>
@@ -44788,13 +44732,13 @@
         <v>97</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2378</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2379</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2380</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>101</v>
@@ -44833,7 +44777,7 @@
         <v>42247</v>
       </c>
       <c r="AD182" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="AF182" s="1" t="s">
         <v>107</v>
@@ -44887,16 +44831,16 @@
         <v>24</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH182" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="BI182" s="1" t="s">
         <v>2383</v>
-      </c>
-      <c r="BI182" s="1" t="s">
-        <v>2384</v>
       </c>
       <c r="BN182" s="1" t="s">
         <v>117</v>
@@ -44908,13 +44852,13 @@
         <v>228</v>
       </c>
       <c r="BS182" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="BT182" s="3">
         <v>36580</v>
       </c>
       <c r="BU182" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="BV182" s="1" t="s">
         <v>121</v>
@@ -44935,7 +44879,7 @@
         <v>102</v>
       </c>
       <c r="CD182" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="CE182" s="1" t="s">
         <v>293</v>
@@ -44944,10 +44888,10 @@
         <v>1577</v>
       </c>
       <c r="CH182" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="CI182" s="1" t="s">
         <v>2388</v>
-      </c>
-      <c r="CI182" s="1" t="s">
-        <v>2389</v>
       </c>
       <c r="CJ182" s="1" t="s">
         <v>129</v>
@@ -44985,13 +44929,13 @@
         <v>97</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2390</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2391</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2392</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>101</v>
@@ -45075,13 +45019,13 @@
         <v>24</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="BI183" s="1" t="s">
         <v>1788</v>
@@ -45096,13 +45040,13 @@
         <v>118</v>
       </c>
       <c r="BS183" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="BT183" s="3">
         <v>37747</v>
       </c>
       <c r="BU183" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="BV183" s="1" t="s">
         <v>121</v>
@@ -45126,10 +45070,10 @@
         <v>647</v>
       </c>
       <c r="CF183" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="CH183" s="1" t="s">
         <v>2397</v>
-      </c>
-      <c r="CH183" s="1" t="s">
-        <v>2398</v>
       </c>
       <c r="CI183" s="1" t="s">
         <v>1795</v>
@@ -45170,13 +45114,13 @@
         <v>97</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2399</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2400</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2401</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>101</v>
@@ -45263,13 +45207,13 @@
         <v>24</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH184" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="BN184" s="1" t="s">
         <v>117</v>
@@ -45278,7 +45222,7 @@
         <v>106</v>
       </c>
       <c r="BU184" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="BV184" s="1" t="s">
         <v>121</v>
@@ -45296,16 +45240,16 @@
         <v>102</v>
       </c>
       <c r="CD184" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="CE184" s="1" t="s">
         <v>2405</v>
       </c>
-      <c r="CE184" s="1" t="s">
+      <c r="CF184" s="1" t="s">
         <v>2406</v>
       </c>
-      <c r="CF184" s="1" t="s">
+      <c r="CH184" s="1" t="s">
         <v>2407</v>
-      </c>
-      <c r="CH184" s="1" t="s">
-        <v>2408</v>
       </c>
       <c r="CI184" s="1" t="s">
         <v>129</v>
@@ -45346,13 +45290,13 @@
         <v>97</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2409</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2410</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2411</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>101</v>
@@ -45439,13 +45383,13 @@
         <v>24</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH185" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="BI185" s="1" t="s">
         <v>569</v>
@@ -45460,7 +45404,7 @@
         <v>163</v>
       </c>
       <c r="BU185" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BV185" s="1" t="s">
         <v>121</v>
@@ -45478,16 +45422,16 @@
         <v>102</v>
       </c>
       <c r="CD185" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="CE185" s="1" t="s">
         <v>2415</v>
       </c>
-      <c r="CE185" s="1" t="s">
+      <c r="CF185" s="1" t="s">
         <v>2416</v>
       </c>
-      <c r="CF185" s="1" t="s">
+      <c r="CH185" s="1" t="s">
         <v>2417</v>
-      </c>
-      <c r="CH185" s="1" t="s">
-        <v>2418</v>
       </c>
       <c r="CI185" s="1" t="s">
         <v>576</v>
@@ -45528,13 +45472,13 @@
         <v>97</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2419</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2420</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2421</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>101</v>
@@ -45615,16 +45559,16 @@
         <v>24</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH186" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="BI186" s="1" t="s">
         <v>2423</v>
-      </c>
-      <c r="BI186" s="1" t="s">
-        <v>2424</v>
       </c>
       <c r="BN186" s="1" t="s">
         <v>117</v>
@@ -45636,13 +45580,13 @@
         <v>103</v>
       </c>
       <c r="BS186" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="BT186" s="3">
         <v>37334</v>
       </c>
       <c r="BU186" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="BV186" s="1" t="s">
         <v>121</v>
@@ -45663,16 +45607,16 @@
         <v>492</v>
       </c>
       <c r="CE186" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="CF186" s="1" t="s">
         <v>2427</v>
       </c>
-      <c r="CF186" s="1" t="s">
+      <c r="CH186" s="1" t="s">
         <v>2428</v>
       </c>
-      <c r="CH186" s="1" t="s">
+      <c r="CI186" s="1" t="s">
         <v>2429</v>
-      </c>
-      <c r="CI186" s="1" t="s">
-        <v>2430</v>
       </c>
       <c r="CJ186" s="1" t="s">
         <v>129</v>
@@ -45689,7 +45633,7 @@
         <v>90</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>313</v>
@@ -45704,19 +45648,19 @@
         <v>95</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2433</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2434</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2435</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>101</v>
@@ -45800,16 +45744,16 @@
         <v>24</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH187" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="BI187" s="1" t="s">
         <v>2437</v>
-      </c>
-      <c r="BI187" s="1" t="s">
-        <v>2438</v>
       </c>
       <c r="BN187" s="1" t="s">
         <v>117</v>
@@ -45821,13 +45765,13 @@
         <v>103</v>
       </c>
       <c r="BS187" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="BT187" s="3">
         <v>37904</v>
       </c>
       <c r="BU187" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BV187" s="1" t="s">
         <v>121</v>
@@ -45836,7 +45780,7 @@
         <v>0</v>
       </c>
       <c r="CA187" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="CB187" s="1" t="s">
         <v>123</v>
@@ -45848,16 +45792,16 @@
         <v>925</v>
       </c>
       <c r="CE187" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="CF187" s="1" t="s">
         <v>2442</v>
       </c>
-      <c r="CF187" s="1" t="s">
+      <c r="CH187" s="1" t="s">
         <v>2443</v>
       </c>
-      <c r="CH187" s="1" t="s">
+      <c r="CI187" s="1" t="s">
         <v>2444</v>
-      </c>
-      <c r="CI187" s="1" t="s">
-        <v>2445</v>
       </c>
       <c r="CJ187" s="1" t="s">
         <v>129</v>
@@ -45895,13 +45839,13 @@
         <v>97</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2446</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2447</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2448</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>101</v>
@@ -45985,13 +45929,13 @@
         <v>24</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BN188" s="1" t="s">
         <v>117</v>
@@ -46003,13 +45947,13 @@
         <v>118</v>
       </c>
       <c r="BS188" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BT188" s="3">
         <v>36111</v>
       </c>
       <c r="BU188" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BV188" s="1" t="s">
         <v>121</v>
@@ -46027,16 +45971,16 @@
         <v>102</v>
       </c>
       <c r="CD188" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="CE188" s="1" t="s">
         <v>1106</v>
       </c>
       <c r="CF188" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="CH188" s="1" t="s">
         <v>2454</v>
-      </c>
-      <c r="CH188" s="1" t="s">
-        <v>2455</v>
       </c>
       <c r="CI188" s="1" t="s">
         <v>129</v>
@@ -46077,13 +46021,13 @@
         <v>97</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2457</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2458</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>101</v>
@@ -46164,16 +46108,16 @@
         <v>24</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH189" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="BI189" s="1" t="s">
         <v>2460</v>
-      </c>
-      <c r="BI189" s="1" t="s">
-        <v>2461</v>
       </c>
       <c r="BN189" s="1" t="s">
         <v>117</v>
@@ -46185,13 +46129,13 @@
         <v>118</v>
       </c>
       <c r="BS189" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BT189" s="3">
         <v>37785</v>
       </c>
       <c r="BU189" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BV189" s="1" t="s">
         <v>121</v>
@@ -46209,19 +46153,19 @@
         <v>102</v>
       </c>
       <c r="CD189" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="CE189" s="1" t="s">
         <v>2464</v>
       </c>
-      <c r="CE189" s="1" t="s">
+      <c r="CF189" s="1" t="s">
         <v>2465</v>
       </c>
-      <c r="CF189" s="1" t="s">
+      <c r="CH189" s="1" t="s">
         <v>2466</v>
       </c>
-      <c r="CH189" s="1" t="s">
+      <c r="CI189" s="1" t="s">
         <v>2467</v>
-      </c>
-      <c r="CI189" s="1" t="s">
-        <v>2468</v>
       </c>
       <c r="CJ189" s="1" t="s">
         <v>129</v>
@@ -46238,7 +46182,7 @@
         <v>1392</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>313</v>
@@ -46253,16 +46197,16 @@
         <v>95</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2471</v>
-      </c>
-      <c r="L190" s="1" t="s">
-        <v>2472</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>101</v>
@@ -46337,7 +46281,7 @@
         <v>20</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="BN190" s="1" t="s">
         <v>117</v>
@@ -46352,7 +46296,7 @@
         <v>0</v>
       </c>
       <c r="CA190" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="CB190" s="1" t="s">
         <v>123</v>
@@ -46361,7 +46305,7 @@
         <v>102</v>
       </c>
       <c r="CD190" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="CH190" s="1" t="s">
         <v>129</v>
@@ -46405,13 +46349,13 @@
         <v>97</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2475</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2476</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2477</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>101</v>
@@ -46489,7 +46433,7 @@
         <v>102</v>
       </c>
       <c r="AZ191" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BB191" s="1">
         <v>6</v>
@@ -46498,7 +46442,7 @@
         <v>24</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>114</v>
@@ -46513,7 +46457,7 @@
         <v>106</v>
       </c>
       <c r="BU191" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="BV191" s="1" t="s">
         <v>121</v>
@@ -46531,13 +46475,13 @@
         <v>102</v>
       </c>
       <c r="CD191" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="CE191" s="1" t="s">
         <v>2481</v>
       </c>
-      <c r="CE191" s="1" t="s">
+      <c r="CF191" s="1" t="s">
         <v>2482</v>
-      </c>
-      <c r="CF191" s="1" t="s">
-        <v>2483</v>
       </c>
       <c r="CH191" s="1" t="s">
         <v>1001</v>
@@ -46581,13 +46525,13 @@
         <v>97</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2484</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2485</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2486</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>101</v>
@@ -46665,7 +46609,7 @@
         <v>102</v>
       </c>
       <c r="AZ192" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BB192" s="1">
         <v>6</v>
@@ -46674,13 +46618,13 @@
         <v>24</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BI192" s="1" t="s">
         <v>597</v>
@@ -46692,7 +46636,7 @@
         <v>106</v>
       </c>
       <c r="BU192" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="BV192" s="1" t="s">
         <v>121</v>
@@ -46710,16 +46654,16 @@
         <v>102</v>
       </c>
       <c r="CD192" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="CE192" s="1" t="s">
         <v>1083</v>
       </c>
       <c r="CF192" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="CH192" s="1" t="s">
         <v>2492</v>
-      </c>
-      <c r="CH192" s="1" t="s">
-        <v>2493</v>
       </c>
       <c r="CI192" s="1" t="s">
         <v>604</v>
@@ -46760,13 +46704,13 @@
         <v>97</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2494</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2495</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2496</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>101</v>
@@ -46844,7 +46788,7 @@
         <v>102</v>
       </c>
       <c r="AZ193" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="BB193" s="1">
         <v>6</v>
@@ -46853,7 +46797,7 @@
         <v>24</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>114</v>
@@ -46868,7 +46812,7 @@
         <v>106</v>
       </c>
       <c r="BU193" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BV193" s="1" t="s">
         <v>121</v>
@@ -46889,10 +46833,10 @@
         <v>1083</v>
       </c>
       <c r="CE193" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="CF193" s="1" t="s">
         <v>2500</v>
-      </c>
-      <c r="CF193" s="1" t="s">
-        <v>2501</v>
       </c>
       <c r="CH193" s="1" t="s">
         <v>1001</v>
@@ -46936,13 +46880,13 @@
         <v>97</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2502</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2503</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2504</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>101</v>
@@ -47020,7 +46964,7 @@
         <v>102</v>
       </c>
       <c r="AZ194" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="BB194" s="1">
         <v>6</v>
@@ -47029,13 +46973,13 @@
         <v>24</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH194" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="BI194" s="1" t="s">
         <v>1788</v>
@@ -47053,13 +46997,13 @@
         <v>163</v>
       </c>
       <c r="BS194" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="BT194" s="3">
         <v>37513</v>
       </c>
       <c r="BU194" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="BV194" s="1" t="s">
         <v>121</v>
@@ -47077,16 +47021,16 @@
         <v>102</v>
       </c>
       <c r="CD194" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="CE194" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CF194" s="1" t="s">
+        <v>2510</v>
+      </c>
+      <c r="CH194" s="1" t="s">
         <v>2511</v>
-      </c>
-      <c r="CH194" s="1" t="s">
-        <v>2512</v>
       </c>
       <c r="CI194" s="1" t="s">
         <v>1795</v>
@@ -47127,13 +47071,13 @@
         <v>97</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2513</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2514</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2515</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>101</v>
@@ -47217,16 +47161,16 @@
         <v>24</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH195" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="BI195" s="1" t="s">
         <v>2517</v>
-      </c>
-      <c r="BI195" s="1" t="s">
-        <v>2518</v>
       </c>
       <c r="BN195" s="1" t="s">
         <v>117</v>
@@ -47238,13 +47182,13 @@
         <v>228</v>
       </c>
       <c r="BS195" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="BT195" s="3">
         <v>41024</v>
       </c>
       <c r="BU195" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="BV195" s="1" t="s">
         <v>121</v>
@@ -47262,19 +47206,19 @@
         <v>102</v>
       </c>
       <c r="CD195" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="CE195" s="1" t="s">
         <v>2521</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CF195" s="1" t="s">
         <v>2522</v>
       </c>
-      <c r="CF195" s="1" t="s">
+      <c r="CH195" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="CH195" s="1" t="s">
+      <c r="CI195" s="1" t="s">
         <v>2524</v>
-      </c>
-      <c r="CI195" s="1" t="s">
-        <v>2525</v>
       </c>
       <c r="CJ195" s="1" t="s">
         <v>129</v>
@@ -47312,10 +47256,10 @@
         <v>97</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2526</v>
-      </c>
-      <c r="L196" s="1" t="s">
-        <v>2527</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>101</v>
@@ -47342,10 +47286,10 @@
         <v>107</v>
       </c>
       <c r="AG196" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="AH196" s="1" t="s">
         <v>2346</v>
-      </c>
-      <c r="AH196" s="1" t="s">
-        <v>2347</v>
       </c>
       <c r="AJ196" s="1" t="s">
         <v>110</v>
@@ -47387,7 +47331,7 @@
         <v>102</v>
       </c>
       <c r="AZ196" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="BB196" s="1">
         <v>2</v>
@@ -47396,7 +47340,7 @@
         <v>21</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="BN196" s="1" t="s">
         <v>117</v>
@@ -47423,7 +47367,7 @@
         <v>102</v>
       </c>
       <c r="CD196" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="CH196" s="1" t="s">
         <v>1363</v>
@@ -47467,13 +47411,13 @@
         <v>97</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2530</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2531</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2532</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>101</v>
@@ -47548,7 +47492,7 @@
         <v>102</v>
       </c>
       <c r="AZ197" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BB197" s="1">
         <v>6</v>
@@ -47557,13 +47501,13 @@
         <v>24</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="BG197" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH197" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="BI197" s="1" t="s">
         <v>2133</v>
@@ -47578,13 +47522,13 @@
         <v>103</v>
       </c>
       <c r="BS197" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="BT197" s="3">
         <v>37336</v>
       </c>
       <c r="BU197" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="BV197" s="1" t="s">
         <v>121</v>
@@ -47602,16 +47546,16 @@
         <v>102</v>
       </c>
       <c r="CD197" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="CE197" s="1" t="s">
         <v>2538</v>
       </c>
-      <c r="CE197" s="1" t="s">
+      <c r="CF197" s="1" t="s">
         <v>2539</v>
       </c>
-      <c r="CF197" s="1" t="s">
+      <c r="CH197" s="1" t="s">
         <v>2540</v>
-      </c>
-      <c r="CH197" s="1" t="s">
-        <v>2541</v>
       </c>
       <c r="CI197" s="1" t="s">
         <v>2136</v>
@@ -47652,13 +47596,13 @@
         <v>97</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2542</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2543</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2544</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>101</v>
@@ -47736,7 +47680,7 @@
         <v>102</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="BB198" s="1">
         <v>6</v>
@@ -47745,16 +47689,16 @@
         <v>24</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="BG198" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH198" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="BI198" s="1" t="s">
         <v>2547</v>
-      </c>
-      <c r="BI198" s="1" t="s">
-        <v>2548</v>
       </c>
       <c r="BN198" s="1" t="s">
         <v>117</v>
@@ -47763,7 +47707,7 @@
         <v>106</v>
       </c>
       <c r="BU198" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="BV198" s="1" t="s">
         <v>121</v>
@@ -47781,19 +47725,19 @@
         <v>102</v>
       </c>
       <c r="CD198" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="CE198" s="1" t="s">
         <v>2550</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CF198" s="1" t="s">
         <v>2551</v>
       </c>
-      <c r="CF198" s="1" t="s">
+      <c r="CH198" s="1" t="s">
         <v>2552</v>
       </c>
-      <c r="CH198" s="1" t="s">
+      <c r="CI198" s="1" t="s">
         <v>2553</v>
-      </c>
-      <c r="CI198" s="1" t="s">
-        <v>2554</v>
       </c>
       <c r="CJ198" s="1" t="s">
         <v>129</v>
@@ -47831,13 +47775,13 @@
         <v>97</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2556</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2557</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>101</v>
@@ -47924,13 +47868,13 @@
         <v>24</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="BN199" s="1" t="s">
         <v>117</v>
@@ -47939,7 +47883,7 @@
         <v>106</v>
       </c>
       <c r="BU199" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="BV199" s="1" t="s">
         <v>121</v>
@@ -47957,16 +47901,16 @@
         <v>102</v>
       </c>
       <c r="CD199" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="CE199" s="1" t="s">
         <v>2561</v>
       </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CF199" s="1" t="s">
         <v>2562</v>
       </c>
-      <c r="CF199" s="1" t="s">
+      <c r="CH199" s="1" t="s">
         <v>2563</v>
-      </c>
-      <c r="CH199" s="1" t="s">
-        <v>2564</v>
       </c>
       <c r="CI199" s="1" t="s">
         <v>129</v>
@@ -48007,13 +47951,13 @@
         <v>97</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2565</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2566</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2567</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>101</v>
@@ -48051,12 +47995,7 @@
       <c r="AB200" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC200" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD200" s="1" t="s">
-        <v>2568</v>
-      </c>
+      <c r="AC200" s="3"/>
       <c r="AF200" s="1" t="s">
         <v>107</v>
       </c>
@@ -48106,7 +48045,7 @@
         <v>102</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="BB200" s="1">
         <v>6</v>
@@ -48115,16 +48054,16 @@
         <v>24</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="BI200" s="1" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="BN200" s="1" t="s">
         <v>117</v>
@@ -48133,7 +48072,7 @@
         <v>106</v>
       </c>
       <c r="BU200" s="1" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="BV200" s="1" t="s">
         <v>121</v>
@@ -48157,16 +48096,16 @@
         <v>1133</v>
       </c>
       <c r="CE200" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="CF200" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="CH200" s="1" t="s">
         <v>2574</v>
       </c>
-      <c r="CF200" s="1" t="s">
+      <c r="CI200" s="1" t="s">
         <v>2575</v>
-      </c>
-      <c r="CH200" s="1" t="s">
-        <v>2576</v>
-      </c>
-      <c r="CI200" s="1" t="s">
-        <v>2577</v>
       </c>
       <c r="CJ200" s="1" t="s">
         <v>129</v>
@@ -48204,10 +48143,10 @@
         <v>97</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>111</v>
@@ -48231,7 +48170,7 @@
         <v>107</v>
       </c>
       <c r="AG201" s="1" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="AH201" s="1" t="s">
         <v>369</v>
@@ -48285,10 +48224,10 @@
         <v>102</v>
       </c>
       <c r="CD201" s="1" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="CF201" s="1" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="202" spans="1:88" x14ac:dyDescent="0.25">
@@ -48323,10 +48262,10 @@
         <v>97</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>111</v>
@@ -48404,10 +48343,10 @@
         <v>102</v>
       </c>
       <c r="CD202" s="1" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="CF202" s="1" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="203" spans="1:88" x14ac:dyDescent="0.25">
@@ -48442,13 +48381,13 @@
         <v>97</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="N203" s="1" t="s">
         <v>2586</v>
-      </c>
-      <c r="L203" s="1" t="s">
-        <v>2587</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2588</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>101</v>
@@ -48477,12 +48416,7 @@
       <c r="AA203" s="1">
         <v>0</v>
       </c>
-      <c r="AC203" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD203" s="1" t="s">
-        <v>2568</v>
-      </c>
+      <c r="AC203" s="3"/>
       <c r="AF203" s="1" t="s">
         <v>107</v>
       </c>
@@ -48535,13 +48469,13 @@
         <v>24</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="BG203" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH203" s="1" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
       <c r="BI203" s="1" t="s">
         <v>373</v>
@@ -48556,13 +48490,13 @@
         <v>103</v>
       </c>
       <c r="BS203" s="1" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
       <c r="BT203" s="3">
         <v>36306</v>
       </c>
       <c r="BU203" s="1" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="BV203" s="1" t="s">
         <v>121</v>
@@ -48580,16 +48514,16 @@
         <v>102</v>
       </c>
       <c r="CD203" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="CE203" s="1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="CF203" s="1" t="s">
         <v>2593</v>
       </c>
-      <c r="CE203" s="1" t="s">
+      <c r="CH203" s="1" t="s">
         <v>2594</v>
-      </c>
-      <c r="CF203" s="1" t="s">
-        <v>2595</v>
-      </c>
-      <c r="CH203" s="1" t="s">
-        <v>2596</v>
       </c>
       <c r="CI203" s="1" t="s">
         <v>380</v>
@@ -48630,13 +48564,13 @@
         <v>97</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="N204" s="1" t="s">
         <v>2597</v>
-      </c>
-      <c r="L204" s="1" t="s">
-        <v>2598</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2599</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>101</v>
@@ -48665,12 +48599,7 @@
       <c r="AA204" s="1">
         <v>0</v>
       </c>
-      <c r="AC204" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD204" s="1" t="s">
-        <v>2568</v>
-      </c>
+      <c r="AC204" s="3"/>
       <c r="AF204" s="1" t="s">
         <v>107</v>
       </c>
@@ -48726,13 +48655,13 @@
         <v>24</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="BG204" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="BN204" s="1" t="s">
         <v>117</v>
@@ -48741,7 +48670,7 @@
         <v>106</v>
       </c>
       <c r="BU204" s="1" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="BV204" s="1" t="s">
         <v>121</v>
@@ -48759,16 +48688,16 @@
         <v>102</v>
       </c>
       <c r="CD204" s="1" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="CE204" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CF204" s="1" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="CH204" s="1" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>129</v>
@@ -48809,16 +48738,16 @@
         <v>97</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="M205" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N205" s="1" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>101</v>
@@ -48850,12 +48779,7 @@
       <c r="AB205" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC205" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD205" s="1" t="s">
-        <v>2568</v>
-      </c>
+      <c r="AC205" s="3"/>
       <c r="AF205" s="1" t="s">
         <v>107</v>
       </c>
@@ -48908,16 +48832,16 @@
         <v>24</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="BI205" s="1" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="BN205" s="1" t="s">
         <v>117</v>
@@ -48929,13 +48853,13 @@
         <v>103</v>
       </c>
       <c r="BS205" s="1" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="BT205" s="3">
         <v>38234</v>
       </c>
       <c r="BU205" s="1" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="BV205" s="1" t="s">
         <v>121</v>
@@ -48953,19 +48877,19 @@
         <v>102</v>
       </c>
       <c r="CD205" s="1" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="CE205" s="1" t="s">
         <v>976</v>
       </c>
       <c r="CF205" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="CH205" s="1" t="s">
+        <v>2614</v>
+      </c>
+      <c r="CI205" s="1" t="s">
         <v>2615</v>
-      </c>
-      <c r="CH205" s="1" t="s">
-        <v>2616</v>
-      </c>
-      <c r="CI205" s="1" t="s">
-        <v>2617</v>
       </c>
       <c r="CJ205" s="1" t="s">
         <v>129</v>
@@ -49003,13 +48927,13 @@
         <v>97</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="L206" s="1" t="s">
+        <v>2617</v>
+      </c>
+      <c r="N206" s="1" t="s">
         <v>2618</v>
-      </c>
-      <c r="L206" s="1" t="s">
-        <v>2619</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2620</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>101</v>
@@ -49038,12 +48962,7 @@
       <c r="AA206" s="1">
         <v>0</v>
       </c>
-      <c r="AC206" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD206" s="1" t="s">
-        <v>2568</v>
-      </c>
+      <c r="AC206" s="3"/>
       <c r="AF206" s="1" t="s">
         <v>107</v>
       </c>
@@ -49099,13 +49018,13 @@
         <v>24</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
       <c r="BI206" s="1" t="s">
         <v>2133</v>
@@ -49117,7 +49036,7 @@
         <v>106</v>
       </c>
       <c r="BU206" s="1" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="BV206" s="1" t="s">
         <v>121</v>
@@ -49135,16 +49054,16 @@
         <v>102</v>
       </c>
       <c r="CD206" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="CE206" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="CF206" s="1" t="s">
         <v>2624</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CH206" s="1" t="s">
         <v>2625</v>
-      </c>
-      <c r="CF206" s="1" t="s">
-        <v>2626</v>
-      </c>
-      <c r="CH206" s="1" t="s">
-        <v>2627</v>
       </c>
       <c r="CI206" s="1" t="s">
         <v>2136</v>
@@ -49185,13 +49104,13 @@
         <v>97</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2626</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="N207" s="1" t="s">
         <v>2628</v>
-      </c>
-      <c r="L207" s="1" t="s">
-        <v>2629</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2630</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>101</v>
@@ -49220,12 +49139,7 @@
       <c r="AA207" s="1">
         <v>0</v>
       </c>
-      <c r="AC207" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD207" s="1" t="s">
-        <v>2568</v>
-      </c>
+      <c r="AC207" s="3"/>
       <c r="AF207" s="1" t="s">
         <v>107</v>
       </c>
@@ -49278,16 +49192,16 @@
         <v>24</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="BI207" s="1" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="BN207" s="1" t="s">
         <v>117</v>
@@ -49299,13 +49213,13 @@
         <v>228</v>
       </c>
       <c r="BS207" s="1" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="BT207" s="3">
         <v>37069</v>
       </c>
       <c r="BU207" s="1" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="BV207" s="1" t="s">
         <v>121</v>
@@ -49326,16 +49240,16 @@
         <v>727</v>
       </c>
       <c r="CE207" s="1" t="s">
+        <v>2634</v>
+      </c>
+      <c r="CF207" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="CH207" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="CF207" s="1" t="s">
+      <c r="CI207" s="1" t="s">
         <v>2637</v>
-      </c>
-      <c r="CH207" s="1" t="s">
-        <v>2638</v>
-      </c>
-      <c r="CI207" s="1" t="s">
-        <v>2639</v>
       </c>
       <c r="CJ207" s="1" t="s">
         <v>129</v>
@@ -49373,13 +49287,13 @@
         <v>97</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>2639</v>
+      </c>
+      <c r="N208" s="1" t="s">
         <v>2640</v>
-      </c>
-      <c r="L208" s="1" t="s">
-        <v>2641</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2642</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>101</v>
@@ -49408,12 +49322,7 @@
       <c r="AA208" s="1">
         <v>0</v>
       </c>
-      <c r="AC208" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD208" s="1" t="s">
-        <v>2568</v>
-      </c>
+      <c r="AC208" s="3"/>
       <c r="AF208" s="1" t="s">
         <v>107</v>
       </c>
@@ -49469,13 +49378,13 @@
         <v>24</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="BG208" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH208" s="1" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
       <c r="BN208" s="1" t="s">
         <v>117</v>
@@ -49484,7 +49393,7 @@
         <v>106</v>
       </c>
       <c r="BU208" s="1" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="BV208" s="1" t="s">
         <v>121</v>
@@ -49502,16 +49411,16 @@
         <v>102</v>
       </c>
       <c r="CD208" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="CE208" s="1" t="s">
+        <v>2645</v>
+      </c>
+      <c r="CF208" s="1" t="s">
         <v>2646</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CH208" s="1" t="s">
         <v>2647</v>
-      </c>
-      <c r="CF208" s="1" t="s">
-        <v>2648</v>
-      </c>
-      <c r="CH208" s="1" t="s">
-        <v>2649</v>
       </c>
       <c r="CI208" s="1" t="s">
         <v>129</v>
@@ -49552,13 +49461,13 @@
         <v>97</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="N209" s="1" t="s">
         <v>2650</v>
-      </c>
-      <c r="L209" s="1" t="s">
-        <v>2651</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2652</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>101</v>
@@ -49587,12 +49496,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2653</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>107</v>
       </c>
@@ -49639,7 +49543,7 @@
         <v>102</v>
       </c>
       <c r="AZ209" s="1" t="s">
-        <v>2654</v>
+        <v>2651</v>
       </c>
       <c r="BB209" s="1">
         <v>6</v>
@@ -49648,16 +49552,16 @@
         <v>24</v>
       </c>
       <c r="BD209" s="1" t="s">
-        <v>2655</v>
+        <v>2652</v>
       </c>
       <c r="BG209" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH209" s="1" t="s">
-        <v>2656</v>
+        <v>2653</v>
       </c>
       <c r="BI209" s="1" t="s">
-        <v>2657</v>
+        <v>2654</v>
       </c>
       <c r="BN209" s="1" t="s">
         <v>117</v>
@@ -49669,13 +49573,13 @@
         <v>228</v>
       </c>
       <c r="BS209" s="1" t="s">
-        <v>2658</v>
+        <v>2655</v>
       </c>
       <c r="BT209" s="3">
         <v>35125</v>
       </c>
       <c r="BU209" s="1" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="BV209" s="1" t="s">
         <v>121</v>
@@ -49693,19 +49597,19 @@
         <v>102</v>
       </c>
       <c r="CD209" s="1" t="s">
-        <v>2660</v>
+        <v>2657</v>
       </c>
       <c r="CE209" s="1" t="s">
         <v>124</v>
       </c>
       <c r="CF209" s="1" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="CH209" s="1" t="s">
-        <v>2662</v>
+        <v>2659</v>
       </c>
       <c r="CI209" s="1" t="s">
-        <v>2663</v>
+        <v>2660</v>
       </c>
       <c r="CJ209" s="1" t="s">
         <v>129</v>
@@ -49743,13 +49647,13 @@
         <v>97</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2664</v>
+        <v>2661</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2665</v>
+        <v>2662</v>
       </c>
       <c r="N210" s="1" t="s">
-        <v>2666</v>
+        <v>2663</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>101</v>
@@ -49785,7 +49689,7 @@
         <v>107</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>2047</v>
@@ -49839,19 +49743,19 @@
         <v>24</v>
       </c>
       <c r="BD210" s="1" t="s">
-        <v>2668</v>
+        <v>2665</v>
       </c>
       <c r="BG210" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2669</v>
+        <v>2666</v>
       </c>
       <c r="BN210" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU210" s="1" t="s">
-        <v>2670</v>
+        <v>2667</v>
       </c>
       <c r="BV210" s="1" t="s">
         <v>121</v>
@@ -49869,16 +49773,16 @@
         <v>102</v>
       </c>
       <c r="CD210" s="1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="CE210" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="CF210" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="CH210" s="1" t="s">
         <v>2671</v>
-      </c>
-      <c r="CE210" s="1" t="s">
-        <v>2672</v>
-      </c>
-      <c r="CF210" s="1" t="s">
-        <v>2673</v>
-      </c>
-      <c r="CH210" s="1" t="s">
-        <v>2674</v>
       </c>
       <c r="CI210" s="1" t="s">
         <v>129</v>
@@ -49919,13 +49823,13 @@
         <v>97</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2675</v>
+        <v>2672</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2676</v>
+        <v>2673</v>
       </c>
       <c r="N211" s="1" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>101</v>
@@ -49961,7 +49865,7 @@
         <v>107</v>
       </c>
       <c r="AG211" s="1" t="s">
-        <v>2678</v>
+        <v>2675</v>
       </c>
       <c r="AH211" s="1" t="s">
         <v>157</v>
@@ -50012,13 +49916,13 @@
         <v>24</v>
       </c>
       <c r="BD211" s="1" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="BG211" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH211" s="1" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
       <c r="BN211" s="1" t="s">
         <v>117</v>
@@ -50027,7 +49931,7 @@
         <v>106</v>
       </c>
       <c r="BU211" s="1" t="s">
-        <v>2681</v>
+        <v>2678</v>
       </c>
       <c r="BV211" s="1" t="s">
         <v>121</v>
@@ -50048,13 +49952,13 @@
         <v>332</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2682</v>
+        <v>2679</v>
       </c>
       <c r="CF211" s="1" t="s">
-        <v>2683</v>
+        <v>2680</v>
       </c>
       <c r="CH211" s="1" t="s">
-        <v>2684</v>
+        <v>2681</v>
       </c>
       <c r="CI211" s="1" t="s">
         <v>129</v>
@@ -50095,13 +49999,13 @@
         <v>97</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2685</v>
+        <v>2682</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2686</v>
+        <v>2683</v>
       </c>
       <c r="N212" s="1" t="s">
-        <v>2687</v>
+        <v>2684</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>101</v>
@@ -50185,16 +50089,16 @@
         <v>24</v>
       </c>
       <c r="BD212" s="1" t="s">
-        <v>2688</v>
+        <v>2685</v>
       </c>
       <c r="BG212" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2689</v>
+        <v>2686</v>
       </c>
       <c r="BI212" s="1" t="s">
-        <v>2690</v>
+        <v>2687</v>
       </c>
       <c r="BN212" s="1" t="s">
         <v>117</v>
@@ -50206,13 +50110,13 @@
         <v>228</v>
       </c>
       <c r="BS212" s="1" t="s">
-        <v>2691</v>
+        <v>2688</v>
       </c>
       <c r="BT212" s="3">
         <v>34307</v>
       </c>
       <c r="BU212" s="1" t="s">
-        <v>2692</v>
+        <v>2689</v>
       </c>
       <c r="BV212" s="1" t="s">
         <v>121</v>
@@ -50230,19 +50134,19 @@
         <v>102</v>
       </c>
       <c r="CD212" s="1" t="s">
-        <v>2693</v>
+        <v>2690</v>
       </c>
       <c r="CE212" s="1" t="s">
         <v>416</v>
       </c>
       <c r="CF212" s="1" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="CH212" s="1" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
       <c r="CI212" s="1" t="s">
-        <v>2696</v>
+        <v>2693</v>
       </c>
       <c r="CJ212" s="1" t="s">
         <v>129</v>
@@ -50280,13 +50184,13 @@
         <v>97</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2697</v>
+        <v>2694</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
       <c r="N213" s="1" t="s">
-        <v>2699</v>
+        <v>2696</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>101</v>
@@ -50373,13 +50277,13 @@
         <v>24</v>
       </c>
       <c r="BD213" s="1" t="s">
-        <v>2700</v>
+        <v>2697</v>
       </c>
       <c r="BG213" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2701</v>
+        <v>2698</v>
       </c>
       <c r="BN213" s="1" t="s">
         <v>117</v>
@@ -50388,7 +50292,7 @@
         <v>106</v>
       </c>
       <c r="BU213" s="1" t="s">
-        <v>2702</v>
+        <v>2699</v>
       </c>
       <c r="BV213" s="1" t="s">
         <v>121</v>
@@ -50418,10 +50322,10 @@
         <v>1195</v>
       </c>
       <c r="CF213" s="1" t="s">
-        <v>2703</v>
+        <v>2700</v>
       </c>
       <c r="CH213" s="1" t="s">
-        <v>2704</v>
+        <v>2701</v>
       </c>
       <c r="CI213" s="1" t="s">
         <v>129</v>
@@ -50462,13 +50366,13 @@
         <v>97</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2705</v>
+        <v>2702</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2706</v>
+        <v>2703</v>
       </c>
       <c r="N214" s="1" t="s">
-        <v>2707</v>
+        <v>2704</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>101</v>
@@ -50552,13 +50456,13 @@
         <v>24</v>
       </c>
       <c r="BD214" s="1" t="s">
-        <v>2708</v>
+        <v>2705</v>
       </c>
       <c r="BG214" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2709</v>
+        <v>2706</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>569</v>
@@ -50576,13 +50480,13 @@
         <v>163</v>
       </c>
       <c r="BS214" s="1" t="s">
-        <v>2710</v>
+        <v>2707</v>
       </c>
       <c r="BT214" s="3">
         <v>5347</v>
       </c>
       <c r="BU214" s="1" t="s">
-        <v>2711</v>
+        <v>2708</v>
       </c>
       <c r="BV214" s="1" t="s">
         <v>121</v>
@@ -50606,16 +50510,16 @@
         <v>102</v>
       </c>
       <c r="CD214" s="1" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="CE214" s="1" t="s">
         <v>448</v>
       </c>
       <c r="CF214" s="1" t="s">
-        <v>2713</v>
+        <v>2710</v>
       </c>
       <c r="CH214" s="1" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="CI214" s="1" t="s">
         <v>576</v>
@@ -50656,10 +50560,10 @@
         <v>97</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>2715</v>
+        <v>2712</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>2716</v>
+        <v>2713</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>101</v>
@@ -50686,10 +50590,10 @@
         <v>107</v>
       </c>
       <c r="AG215" s="1" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="AH215" s="1" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="AJ215" s="1" t="s">
         <v>110</v>
@@ -50737,7 +50641,7 @@
         <v>21</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="BN215" s="1" t="s">
         <v>117</v>
@@ -50767,7 +50671,7 @@
         <v>93</v>
       </c>
       <c r="CD215" s="1" t="s">
-        <v>2715</v>
+        <v>2712</v>
       </c>
       <c r="CH215" s="1" t="s">
         <v>129</v>
@@ -50811,10 +50715,10 @@
         <v>97</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>2721</v>
+        <v>2718</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>101</v>
@@ -50841,10 +50745,10 @@
         <v>107</v>
       </c>
       <c r="AG216" s="1" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="AH216" s="1" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="AJ216" s="1" t="s">
         <v>110</v>
@@ -50892,7 +50796,7 @@
         <v>21</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="BN216" s="1" t="s">
         <v>117</v>
@@ -50910,7 +50814,7 @@
         <v>111</v>
       </c>
       <c r="CA216" s="1" t="s">
-        <v>2723</v>
+        <v>2720</v>
       </c>
       <c r="CB216" s="1" t="s">
         <v>123</v>
@@ -50919,7 +50823,7 @@
         <v>93</v>
       </c>
       <c r="CD216" s="1" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="CH216" s="1" t="s">
         <v>129</v>
@@ -50963,13 +50867,13 @@
         <v>97</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>2725</v>
+        <v>2722</v>
       </c>
       <c r="N217" s="1" t="s">
-        <v>2726</v>
+        <v>2723</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>101</v>
@@ -51059,19 +50963,19 @@
         <v>24</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2727</v>
+        <v>2724</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2728</v>
+        <v>2725</v>
       </c>
       <c r="BN217" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU217" s="1" t="s">
-        <v>2729</v>
+        <v>2726</v>
       </c>
       <c r="BV217" s="1" t="s">
         <v>121</v>
@@ -51092,16 +50996,16 @@
         <v>102</v>
       </c>
       <c r="CD217" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="CE217" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="CF217" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="CH217" s="1" t="s">
         <v>2730</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2731</v>
-      </c>
-      <c r="CF217" s="1" t="s">
-        <v>2732</v>
-      </c>
-      <c r="CH217" s="1" t="s">
-        <v>2733</v>
       </c>
       <c r="CI217" s="1" t="s">
         <v>129</v>
@@ -51124,7 +51028,7 @@
         <v>91</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>102</v>
@@ -51136,19 +51040,19 @@
         <v>95</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>2735</v>
+        <v>2732</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>2736</v>
+        <v>2733</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>2737</v>
+        <v>2734</v>
       </c>
       <c r="N218" s="1" t="s">
-        <v>2738</v>
+        <v>2735</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>101</v>
@@ -51232,13 +51136,13 @@
         <v>24</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2739</v>
+        <v>2736</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2740</v>
+        <v>2737</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>373</v>
@@ -51253,13 +51157,13 @@
         <v>118</v>
       </c>
       <c r="BS218" s="1" t="s">
-        <v>2741</v>
+        <v>2738</v>
       </c>
       <c r="BT218" s="3">
         <v>35278</v>
       </c>
       <c r="BU218" s="1" t="s">
-        <v>2742</v>
+        <v>2739</v>
       </c>
       <c r="BV218" s="1" t="s">
         <v>121</v>
@@ -51280,16 +51184,16 @@
         <v>102</v>
       </c>
       <c r="CD218" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="CE218" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="CF218" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="CH218" s="1" t="s">
         <v>2743</v>
-      </c>
-      <c r="CE218" s="1" t="s">
-        <v>2744</v>
-      </c>
-      <c r="CF218" s="1" t="s">
-        <v>2745</v>
-      </c>
-      <c r="CH218" s="1" t="s">
-        <v>2746</v>
       </c>
       <c r="CI218" s="1" t="s">
         <v>380</v>
@@ -51330,13 +51234,13 @@
         <v>97</v>
       </c>
       <c r="K219" s="1" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="L219" s="1" t="s">
-        <v>2748</v>
+        <v>2745</v>
       </c>
       <c r="N219" s="1" t="s">
-        <v>2749</v>
+        <v>2746</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>101</v>
@@ -51426,19 +51330,19 @@
         <v>24</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2728</v>
+        <v>2725</v>
       </c>
       <c r="BN219" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU219" s="1" t="s">
-        <v>2751</v>
+        <v>2748</v>
       </c>
       <c r="BV219" s="1" t="s">
         <v>121</v>
@@ -51459,16 +51363,16 @@
         <v>102</v>
       </c>
       <c r="CD219" s="1" t="s">
-        <v>2752</v>
+        <v>2749</v>
       </c>
       <c r="CE219" s="1" t="s">
         <v>449</v>
       </c>
       <c r="CF219" s="1" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="CH219" s="1" t="s">
-        <v>2733</v>
+        <v>2730</v>
       </c>
       <c r="CI219" s="1" t="s">
         <v>129</v>
@@ -51509,10 +51413,10 @@
         <v>97</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>2755</v>
+        <v>2752</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>101</v>
@@ -51539,10 +51443,10 @@
         <v>107</v>
       </c>
       <c r="AG220" s="1" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="AH220" s="1" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="AJ220" s="1" t="s">
         <v>110</v>
@@ -51587,7 +51491,7 @@
         <v>22</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2757</v>
+        <v>2754</v>
       </c>
       <c r="BN220" s="1" t="s">
         <v>117</v>
@@ -51614,7 +51518,7 @@
         <v>93</v>
       </c>
       <c r="CD220" s="1" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>129</v>
@@ -51658,10 +51562,10 @@
         <v>97</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>2759</v>
+        <v>2756</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>101</v>
@@ -51736,7 +51640,7 @@
         <v>23</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="BN221" s="1" t="s">
         <v>117</v>
@@ -51763,7 +51667,7 @@
         <v>102</v>
       </c>
       <c r="CD221" s="1" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
       <c r="CH221" s="1" t="s">
         <v>1363</v>
@@ -51807,13 +51711,13 @@
         <v>97</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>2761</v>
+        <v>2758</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>101</v>
@@ -51900,13 +51804,13 @@
         <v>24</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
       <c r="BN222" s="1" t="s">
         <v>117</v>
@@ -51915,7 +51819,7 @@
         <v>106</v>
       </c>
       <c r="BU222" s="1" t="s">
-        <v>2766</v>
+        <v>2763</v>
       </c>
       <c r="BV222" s="1" t="s">
         <v>121</v>
@@ -51936,16 +51840,16 @@
         <v>102</v>
       </c>
       <c r="CD222" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="CE222" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="CF222" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="CH222" s="1" t="s">
         <v>2767</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2768</v>
-      </c>
-      <c r="CF222" s="1" t="s">
-        <v>2769</v>
-      </c>
-      <c r="CH222" s="1" t="s">
-        <v>2770</v>
       </c>
       <c r="CI222" s="1" t="s">
         <v>129</v>
@@ -51986,16 +51890,16 @@
         <v>97</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="M223" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>101</v>
@@ -52031,7 +51935,7 @@
         <v>107</v>
       </c>
       <c r="AG223" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="AH223" s="1" t="s">
         <v>157</v>
@@ -52082,22 +51986,22 @@
         <v>24</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="BI223" s="1" t="s">
-        <v>2777</v>
+        <v>2774</v>
       </c>
       <c r="BN223" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU223" s="1" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="BV223" s="1" t="s">
         <v>121</v>
@@ -52118,19 +52022,19 @@
         <v>102</v>
       </c>
       <c r="CD223" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="CE223" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="CF223" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="CH223" s="1" t="s">
         <v>2779</v>
       </c>
-      <c r="CE223" s="1" t="s">
+      <c r="CI223" s="1" t="s">
         <v>2780</v>
-      </c>
-      <c r="CF223" s="1" t="s">
-        <v>2781</v>
-      </c>
-      <c r="CH223" s="1" t="s">
-        <v>2782</v>
-      </c>
-      <c r="CI223" s="1" t="s">
-        <v>2783</v>
       </c>
       <c r="CJ223" s="1" t="s">
         <v>129</v>
@@ -52168,13 +52072,13 @@
         <v>97</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>101</v>
@@ -52258,13 +52162,13 @@
         <v>24</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2787</v>
+        <v>2784</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="BI224" s="1" t="s">
         <v>1614</v>
@@ -52279,13 +52183,13 @@
         <v>103</v>
       </c>
       <c r="BS224" s="1" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="BT224" s="3">
         <v>424</v>
       </c>
       <c r="BU224" s="1" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
       <c r="BV224" s="1" t="s">
         <v>121</v>
@@ -52306,16 +52210,16 @@
         <v>102</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>1903</v>
       </c>
       <c r="CF224" s="1" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="CH224" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="CI224" s="1" t="s">
         <v>1620</v>
@@ -52356,13 +52260,13 @@
         <v>97</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>101</v>
@@ -52446,16 +52350,16 @@
         <v>24</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="BG225" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="BI225" s="1" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="BN225" s="1" t="s">
         <v>117</v>
@@ -52467,13 +52371,13 @@
         <v>103</v>
       </c>
       <c r="BS225" s="1" t="s">
-        <v>2800</v>
+        <v>2797</v>
       </c>
       <c r="BT225" s="3">
         <v>34412</v>
       </c>
       <c r="BU225" s="1" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
       <c r="BV225" s="1" t="s">
         <v>121</v>
@@ -52494,19 +52398,19 @@
         <v>102</v>
       </c>
       <c r="CD225" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="CE225" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="CF225" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="CH225" s="1" t="s">
         <v>2802</v>
       </c>
-      <c r="CE225" s="1" t="s">
+      <c r="CI225" s="1" t="s">
         <v>2803</v>
-      </c>
-      <c r="CF225" s="1" t="s">
-        <v>2804</v>
-      </c>
-      <c r="CH225" s="1" t="s">
-        <v>2805</v>
-      </c>
-      <c r="CI225" s="1" t="s">
-        <v>2806</v>
       </c>
       <c r="CJ225" s="1" t="s">
         <v>129</v>
@@ -52625,7 +52529,7 @@
         <v>23</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2807</v>
+        <v>2804</v>
       </c>
       <c r="BN226" s="1" t="s">
         <v>117</v>
@@ -52678,7 +52582,7 @@
         <v>91</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>93</v>
@@ -52690,22 +52594,22 @@
         <v>95</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2807</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="M227" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="N227" s="1" t="s">
         <v>2810</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2811</v>
-      </c>
-      <c r="M227" s="1" t="s">
-        <v>2812</v>
-      </c>
-      <c r="N227" s="1" t="s">
-        <v>2813</v>
       </c>
       <c r="Q227" s="3">
         <v>17060</v>
@@ -52738,13 +52642,13 @@
         <v>42628</v>
       </c>
       <c r="AD227" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="AF227" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG227" s="1" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
       <c r="AH227" s="1" t="s">
         <v>138</v>
@@ -52789,22 +52693,22 @@
         <v>102</v>
       </c>
       <c r="AZ227" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="BB227" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC227" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD227" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="BH227" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="BI227" s="1" t="s">
         <v>2816</v>
-      </c>
-      <c r="BB227" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC227" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD227" s="1" t="s">
-        <v>2817</v>
-      </c>
-      <c r="BH227" s="1" t="s">
-        <v>2818</v>
-      </c>
-      <c r="BI227" s="1" t="s">
-        <v>2819</v>
       </c>
       <c r="BN227" s="1" t="s">
         <v>117</v>
@@ -52813,7 +52717,7 @@
         <v>106</v>
       </c>
       <c r="BU227" s="1" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="BV227" s="1" t="s">
         <v>121</v>
@@ -52837,13 +52741,13 @@
         <v>125</v>
       </c>
       <c r="CF227" s="1" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="CH227" s="1" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="CI227" s="1" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="CJ227" s="1" t="s">
         <v>129</v>
@@ -52857,13 +52761,13 @@
         <v>89</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>102</v>
@@ -52875,22 +52779,22 @@
         <v>95</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="Q228" s="3">
         <v>26864</v>
@@ -52920,7 +52824,7 @@
         <v>42735</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>2830</v>
+        <v>2827</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>107</v>
@@ -52974,10 +52878,10 @@
         <v>0</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="BN228" s="1" t="s">
         <v>117</v>
@@ -52989,13 +52893,13 @@
         <v>228</v>
       </c>
       <c r="BS228" s="1" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
       <c r="BT228" s="3">
         <v>102</v>
       </c>
       <c r="BU228" s="1" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="BV228" s="1" t="s">
         <v>121</v>
@@ -53007,7 +52911,7 @@
         <v>111</v>
       </c>
       <c r="CA228" s="1" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="CB228" s="1" t="s">
         <v>123</v>
@@ -53016,16 +52920,16 @@
         <v>102</v>
       </c>
       <c r="CD228" s="1" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="CF228" s="1" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="CH228" s="1" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="CI228" s="1" t="s">
         <v>129</v>
@@ -53045,7 +52949,7 @@
         <v>312</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>313</v>
@@ -53066,16 +52970,16 @@
         <v>97</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="Q229" s="3">
         <v>25379</v>
@@ -53105,7 +53009,7 @@
         <v>39800</v>
       </c>
       <c r="AD229" s="1" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="AF229" s="1" t="s">
         <v>240</v>
@@ -53159,10 +53063,10 @@
         <v>0</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="BN229" s="1" t="s">
         <v>117</v>
@@ -53174,13 +53078,13 @@
         <v>1750</v>
       </c>
       <c r="BS229" s="1" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="BT229" s="3">
         <v>35915</v>
       </c>
       <c r="BU229" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="BV229" s="1" t="s">
         <v>121</v>
@@ -53210,10 +53114,10 @@
         <v>625</v>
       </c>
       <c r="CF229" s="1" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="CH229" s="1" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="CI229" s="1" t="s">
         <v>129</v>
@@ -53236,7 +53140,7 @@
         <v>130</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>102</v>
@@ -53248,22 +53152,22 @@
         <v>95</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="Q230" s="3">
         <v>17470</v>
@@ -53293,7 +53197,7 @@
         <v>43100</v>
       </c>
       <c r="AD230" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="AF230" s="1" t="s">
         <v>107</v>
@@ -53350,10 +53254,10 @@
         <v>0</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="BN230" s="1" t="s">
         <v>117</v>
@@ -53362,7 +53266,7 @@
         <v>106</v>
       </c>
       <c r="BU230" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="BV230" s="1" t="s">
         <v>121</v>
@@ -53386,16 +53290,16 @@
         <v>102</v>
       </c>
       <c r="CD230" s="1" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="CF230" s="1" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="CH230" s="1" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="CI230" s="1" t="s">
         <v>129</v>
@@ -53418,7 +53322,7 @@
         <v>1393</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>93</v>
@@ -53430,22 +53334,22 @@
         <v>95</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="Q231" s="3">
         <v>17726</v>
@@ -53478,7 +53382,7 @@
         <v>43312</v>
       </c>
       <c r="AD231" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>240</v>
@@ -53529,7 +53433,7 @@
         <v>102</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="BB231" s="1">
         <v>0</v>
@@ -53538,10 +53442,10 @@
         <v>0</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="BN231" s="1" t="s">
         <v>117</v>
@@ -53550,7 +53454,7 @@
         <v>106</v>
       </c>
       <c r="BU231" s="1" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="BV231" s="1" t="s">
         <v>121</v>
@@ -53559,7 +53463,7 @@
         <v>0</v>
       </c>
       <c r="CA231" s="1" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="CB231" s="1" t="s">
         <v>123</v>
@@ -53568,16 +53472,16 @@
         <v>102</v>
       </c>
       <c r="CD231" s="1" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="CF231" s="1" t="s">
         <v>866</v>
       </c>
       <c r="CH231" s="1" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="CI231" s="1" t="s">
         <v>129</v>
@@ -53600,7 +53504,7 @@
         <v>1393</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>93</v>
@@ -53612,22 +53516,22 @@
         <v>95</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="Q232" s="3">
         <v>17041</v>
@@ -53654,13 +53558,13 @@
         <v>42735</v>
       </c>
       <c r="AD232" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="AF232" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG232" s="1" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
       <c r="AH232" s="1" t="s">
         <v>2047</v>
@@ -53711,7 +53615,7 @@
         <v>0</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="BN232" s="1" t="s">
         <v>117</v>
@@ -53720,7 +53624,7 @@
         <v>106</v>
       </c>
       <c r="BU232" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="BV232" s="1" t="s">
         <v>121</v>
@@ -53732,7 +53636,7 @@
         <v>111</v>
       </c>
       <c r="CA232" s="1" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="CB232" s="1" t="s">
         <v>123</v>
@@ -53741,13 +53645,13 @@
         <v>102</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="CF232" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>129</v>
@@ -53773,7 +53677,7 @@
         <v>1393</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>102</v>
@@ -53785,22 +53689,22 @@
         <v>95</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="Q233" s="3">
         <v>30147</v>
@@ -53823,17 +53727,12 @@
       <c r="AA233" s="1">
         <v>0</v>
       </c>
-      <c r="AC233" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD233" s="1" t="s">
-        <v>2568</v>
-      </c>
+      <c r="AC233" s="3"/>
       <c r="AF233" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>369</v>
@@ -53881,10 +53780,10 @@
         <v>0</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="BN233" s="1" t="s">
         <v>117</v>
@@ -53896,13 +53795,13 @@
         <v>103</v>
       </c>
       <c r="BS233" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="BT233" s="3">
         <v>37124</v>
       </c>
       <c r="BU233" s="1" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="BV233" s="1" t="s">
         <v>121</v>
@@ -53911,7 +53810,7 @@
         <v>0</v>
       </c>
       <c r="CA233" s="1" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="CB233" s="1" t="s">
         <v>123</v>
@@ -53920,16 +53819,16 @@
         <v>102</v>
       </c>
       <c r="CD233" s="1" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="CE233" s="1" t="s">
         <v>1106</v>
       </c>
       <c r="CF233" s="1" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="CH233" s="1" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="CI233" s="1" t="s">
         <v>129</v>
@@ -53970,16 +53869,16 @@
         <v>97</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="Q234" s="3">
         <v>17821</v>
@@ -54015,7 +53914,7 @@
         <v>43388</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="AF234" s="1" t="s">
         <v>107</v>
@@ -54066,25 +53965,25 @@
         <v>102</v>
       </c>
       <c r="AZ234" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="BB234" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC234" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD234" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="BE234" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="BF234" s="1" t="s">
         <v>2900</v>
       </c>
-      <c r="BB234" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC234" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD234" s="1" t="s">
+      <c r="BH234" s="1" t="s">
         <v>2901</v>
-      </c>
-      <c r="BE234" s="1" t="s">
-        <v>2902</v>
-      </c>
-      <c r="BF234" s="1" t="s">
-        <v>2903</v>
-      </c>
-      <c r="BH234" s="1" t="s">
-        <v>2904</v>
       </c>
       <c r="BN234" s="1" t="s">
         <v>117</v>
@@ -54093,7 +53992,7 @@
         <v>106</v>
       </c>
       <c r="BU234" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="BV234" s="1" t="s">
         <v>121</v>
@@ -54111,16 +54010,16 @@
         <v>102</v>
       </c>
       <c r="CD234" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="CF234" s="1" t="s">
         <v>479</v>
       </c>
       <c r="CH234" s="1" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="CI234" s="1" t="s">
         <v>129</v>
@@ -54140,7 +54039,7 @@
         <v>312</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>313</v>
@@ -54161,16 +54060,16 @@
         <v>97</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>101</v>
@@ -54203,7 +54102,7 @@
         <v>43980</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>107</v>
@@ -54257,10 +54156,10 @@
         <v>20</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="BN235" s="1" t="s">
         <v>117</v>
@@ -54272,13 +54171,13 @@
         <v>1750</v>
       </c>
       <c r="BS235" s="1" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="BT235" s="3">
         <v>35915</v>
       </c>
       <c r="BU235" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="BV235" s="1" t="s">
         <v>121</v>
@@ -54302,7 +54201,7 @@
         <v>625</v>
       </c>
       <c r="CF235" s="1" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>1363</v>
@@ -54340,22 +54239,22 @@
         <v>95</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>101</v>
@@ -54388,7 +54287,7 @@
         <v>44135</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>107</v>
@@ -54445,10 +54344,10 @@
         <v>20</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="BN236" s="1" t="s">
         <v>117</v>
@@ -54457,7 +54356,7 @@
         <v>106</v>
       </c>
       <c r="BU236" s="1" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="BV236" s="1" t="s">
         <v>121</v>
@@ -54466,7 +54365,7 @@
         <v>0</v>
       </c>
       <c r="CA236" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="CB236" s="1" t="s">
         <v>123</v>
@@ -54478,10 +54377,10 @@
         <v>1231</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="CF236" s="1" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="CH236" s="1" t="s">
         <v>1363</v>
@@ -54507,7 +54406,7 @@
         <v>91</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>102</v>
@@ -54519,22 +54418,22 @@
         <v>95</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>2735</v>
+        <v>2732</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>101</v>
@@ -54567,16 +54466,16 @@
         <v>43847</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG237" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="AH237" s="1" t="s">
         <v>2346</v>
-      </c>
-      <c r="AH237" s="1" t="s">
-        <v>2347</v>
       </c>
       <c r="AJ237" s="1" t="s">
         <v>110</v>
@@ -54618,7 +54517,7 @@
         <v>102</v>
       </c>
       <c r="AZ237" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="BB237" s="1">
         <v>2</v>
@@ -54627,10 +54526,10 @@
         <v>21</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="BN237" s="1" t="s">
         <v>117</v>
@@ -54642,13 +54541,13 @@
         <v>118</v>
       </c>
       <c r="BS237" s="1" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="BT237" s="3">
         <v>34808</v>
       </c>
       <c r="BU237" s="1" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="BV237" s="1" t="s">
         <v>121</v>
@@ -54666,13 +54565,13 @@
         <v>102</v>
       </c>
       <c r="CD237" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="CF237" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="CH237" s="1" t="s">
         <v>1363</v>
@@ -54689,10 +54588,10 @@
         <v>88</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1203</v>
@@ -54716,16 +54615,16 @@
         <v>313</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>101</v>
@@ -54779,7 +54678,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="1" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="AO238" s="1">
         <v>0</v>
@@ -54809,7 +54708,7 @@
         <v>102</v>
       </c>
       <c r="AZ238" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="BB238" s="1">
         <v>2</v>
@@ -54818,13 +54717,13 @@
         <v>21</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="BN238" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU238" s="1" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="BV238" s="1" t="s">
         <v>121</v>
@@ -54842,13 +54741,13 @@
         <v>102</v>
       </c>
       <c r="CD238" s="1" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="CF238" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="CH238" s="1" t="s">
         <v>129</v>
@@ -54874,7 +54773,7 @@
         <v>1393</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>102</v>
@@ -54886,22 +54785,22 @@
         <v>95</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>101</v>
@@ -54937,7 +54836,7 @@
         <v>44246</v>
       </c>
       <c r="AD239" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="AF239" s="1" t="s">
         <v>107</v>
@@ -54994,10 +54893,10 @@
         <v>21</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="BN239" s="1" t="s">
         <v>117</v>
@@ -55006,7 +54905,7 @@
         <v>106</v>
       </c>
       <c r="BU239" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="BV239" s="1" t="s">
         <v>121</v>
@@ -55021,7 +54920,7 @@
         <v>111</v>
       </c>
       <c r="CA239" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="CB239" s="1" t="s">
         <v>123</v>
@@ -55030,13 +54929,13 @@
         <v>102</v>
       </c>
       <c r="CD239" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="CE239" s="1" t="s">
         <v>145</v>
       </c>
       <c r="CF239" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>129</v>
@@ -55062,7 +54961,7 @@
         <v>91</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>93</v>
@@ -55074,22 +54973,22 @@
         <v>95</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>101</v>
@@ -55125,7 +55024,7 @@
         <v>44267</v>
       </c>
       <c r="AD240" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="AF240" s="1" t="s">
         <v>107</v>
@@ -55182,10 +55081,10 @@
         <v>21</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="BN240" s="1" t="s">
         <v>117</v>
@@ -55197,13 +55096,13 @@
         <v>118</v>
       </c>
       <c r="BS240" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="BT240" s="3">
         <v>35711</v>
       </c>
       <c r="BU240" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="BV240" s="1" t="s">
         <v>121</v>
@@ -55227,10 +55126,10 @@
         <v>377</v>
       </c>
       <c r="CF240" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="CH240" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="CI240" s="1" t="s">
         <v>129</v>
@@ -55271,16 +55170,16 @@
         <v>97</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>101</v>
@@ -55313,16 +55212,16 @@
         <v>44255</v>
       </c>
       <c r="AD241" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="AF241" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG241" s="1" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="AH241" s="1" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="AJ241" s="1" t="s">
         <v>110</v>
@@ -55370,16 +55269,16 @@
         <v>21</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="BE241" s="1" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="BF241" s="1" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="BN241" s="1" t="s">
         <v>117</v>
@@ -55388,13 +55287,13 @@
         <v>228</v>
       </c>
       <c r="BS241" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="BT241" s="3">
         <v>2302</v>
       </c>
       <c r="BU241" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="BV241" s="1" t="s">
         <v>121</v>
@@ -55418,16 +55317,16 @@
         <v>93</v>
       </c>
       <c r="CD241" s="1" t="s">
+        <v>2973</v>
+      </c>
+      <c r="CE241" s="1" t="s">
+        <v>2974</v>
+      </c>
+      <c r="CF241" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="CH241" s="1" t="s">
         <v>2976</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2977</v>
-      </c>
-      <c r="CF241" s="1" t="s">
-        <v>2978</v>
-      </c>
-      <c r="CH241" s="1" t="s">
-        <v>2979</v>
       </c>
       <c r="CI241" s="1" t="s">
         <v>129</v>
@@ -55468,16 +55367,16 @@
         <v>97</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="M242" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>101</v>
@@ -55510,7 +55409,7 @@
         <v>44316</v>
       </c>
       <c r="AD242" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="AF242" s="1" t="s">
         <v>107</v>
@@ -55567,10 +55466,10 @@
         <v>21</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="BN242" s="1" t="s">
         <v>117</v>
@@ -55582,13 +55481,13 @@
         <v>228</v>
       </c>
       <c r="BS242" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="BT242" s="3">
         <v>35108</v>
       </c>
       <c r="BU242" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="BV242" s="1" t="s">
         <v>121</v>
@@ -55606,16 +55505,16 @@
         <v>102</v>
       </c>
       <c r="CD242" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="CE242" s="1" t="s">
         <v>1839</v>
       </c>
       <c r="CF242" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="CH242" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="CI242" s="1" t="s">
         <v>129</v>
@@ -55656,16 +55555,16 @@
         <v>97</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="M243" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>101</v>
@@ -55698,16 +55597,16 @@
         <v>44507</v>
       </c>
       <c r="AD243" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="AF243" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG243" s="1" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="AH243" s="1" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="AI243" s="1" t="s">
         <v>102</v>
@@ -55758,16 +55657,16 @@
         <v>21</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="BN243" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU243" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="BV243" s="1" t="s">
         <v>121</v>
@@ -55782,7 +55681,7 @@
         <v>111</v>
       </c>
       <c r="CA243" s="1" t="s">
-        <v>2723</v>
+        <v>2720</v>
       </c>
       <c r="CB243" s="1" t="s">
         <v>123</v>
@@ -55791,16 +55690,16 @@
         <v>93</v>
       </c>
       <c r="CD243" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="CF243" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="CH243" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="CI243" s="1" t="s">
         <v>129</v>
@@ -55841,16 +55740,16 @@
         <v>97</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="M244" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>101</v>
@@ -55883,7 +55782,7 @@
         <v>44701</v>
       </c>
       <c r="AD244" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="AF244" s="1" t="s">
         <v>107</v>
@@ -55931,7 +55830,7 @@
         <v>102</v>
       </c>
       <c r="AZ244" s="1" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="BB244" s="1">
         <v>5</v>
@@ -55940,13 +55839,13 @@
         <v>22</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="BI244" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="BN244" s="1" t="s">
         <v>117</v>
@@ -55961,13 +55860,13 @@
         <v>163</v>
       </c>
       <c r="BS244" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="BT244" s="3">
         <v>36825</v>
       </c>
       <c r="BU244" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="BV244" s="1" t="s">
         <v>121</v>
@@ -55982,7 +55881,7 @@
         <v>111</v>
       </c>
       <c r="CA244" s="1" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="CB244" s="1" t="s">
         <v>123</v>
@@ -55991,19 +55890,19 @@
         <v>102</v>
       </c>
       <c r="CD244" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="CF244" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="CH244" s="1" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="CI244" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="CJ244" s="1" t="s">
         <v>129</v>
@@ -56035,22 +55934,22 @@
         <v>95</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="M245" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>101</v>
@@ -56083,7 +55982,7 @@
         <v>44561</v>
       </c>
       <c r="AD245" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="AF245" s="1" t="s">
         <v>107</v>
@@ -56140,10 +56039,10 @@
         <v>22</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="BN245" s="1" t="s">
         <v>117</v>
@@ -56152,13 +56051,13 @@
         <v>228</v>
       </c>
       <c r="BS245" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="BT245" s="3">
         <v>5480</v>
       </c>
       <c r="BU245" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="BV245" s="1" t="s">
         <v>121</v>
@@ -56182,16 +56081,16 @@
         <v>102</v>
       </c>
       <c r="CD245" s="1" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="CF245" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="CH245" s="1" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="CI245" s="1" t="s">
         <v>129</v>
@@ -56211,7 +56110,7 @@
         <v>90</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>313</v>
@@ -56226,22 +56125,22 @@
         <v>95</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="M246" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>101</v>
@@ -56277,7 +56176,7 @@
         <v>44788</v>
       </c>
       <c r="AD246" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>107</v>
@@ -56337,10 +56236,10 @@
         <v>22</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="BN246" s="1" t="s">
         <v>117</v>
@@ -56355,13 +56254,13 @@
         <v>163</v>
       </c>
       <c r="BS246" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="BT246" s="3">
         <v>35259</v>
       </c>
       <c r="BU246" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="BV246" s="1" t="s">
         <v>121</v>
@@ -56379,13 +56278,13 @@
         <v>102</v>
       </c>
       <c r="CD246" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="CF246" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>129</v>
@@ -56429,16 +56328,16 @@
         <v>97</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>101</v>
@@ -56471,16 +56370,16 @@
         <v>44833</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="AF247" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG247" s="1" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="AH247" s="1" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="AI247" s="1" t="s">
         <v>102</v>
@@ -56531,16 +56430,16 @@
         <v>22</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="BN247" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU247" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="BV247" s="1" t="s">
         <v>121</v>
@@ -56552,7 +56451,7 @@
         <v>111</v>
       </c>
       <c r="CA247" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="CB247" s="1" t="s">
         <v>123</v>
@@ -56561,16 +56460,16 @@
         <v>93</v>
       </c>
       <c r="CD247" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="CF247" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="CH247" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="CI247" s="1" t="s">
         <v>129</v>
@@ -56611,16 +56510,16 @@
         <v>97</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>101</v>
@@ -56653,16 +56552,16 @@
         <v>44895</v>
       </c>
       <c r="AD248" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="AF248" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG248" s="1" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="AH248" s="1" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="AJ248" s="1" t="s">
         <v>110</v>
@@ -56707,10 +56606,10 @@
         <v>22</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>2757</v>
+        <v>2754</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="BN248" s="1" t="s">
         <v>117</v>
@@ -56719,13 +56618,13 @@
         <v>118</v>
       </c>
       <c r="BS248" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="BT248" s="3">
         <v>34170</v>
       </c>
       <c r="BU248" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="BV248" s="1" t="s">
         <v>121</v>
@@ -56746,16 +56645,16 @@
         <v>93</v>
       </c>
       <c r="CD248" s="1" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="CE248" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="CF248" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="CH248" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="CI248" s="1" t="s">
         <v>129</v>
@@ -56796,16 +56695,16 @@
         <v>97</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>101</v>
@@ -56838,7 +56737,7 @@
         <v>45007</v>
       </c>
       <c r="AD249" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>107</v>
@@ -56892,10 +56791,10 @@
         <v>23</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="BN249" s="1" t="s">
         <v>117</v>
@@ -56904,13 +56803,13 @@
         <v>103</v>
       </c>
       <c r="BS249" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="BT249" s="3">
         <v>300</v>
       </c>
       <c r="BU249" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="BV249" s="1" t="s">
         <v>121</v>
@@ -56931,13 +56830,13 @@
         <v>102</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="CF249" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>1363</v>
@@ -56981,16 +56880,16 @@
         <v>97</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="M250" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>101</v>
@@ -57029,7 +56928,7 @@
         <v>45124</v>
       </c>
       <c r="AD250" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="AF250" s="1" t="s">
         <v>107</v>
@@ -57089,10 +56988,10 @@
         <v>23</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="BN250" s="1" t="s">
         <v>117</v>
@@ -57101,7 +57000,7 @@
         <v>106</v>
       </c>
       <c r="BU250" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="BV250" s="1" t="s">
         <v>121</v>
@@ -57122,13 +57021,13 @@
         <v>102</v>
       </c>
       <c r="CD250" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="CF250" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>1363</v>
@@ -57172,13 +57071,13 @@
         <v>97</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="L251" s="1" t="s">
         <v>1627</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>101</v>
@@ -57262,19 +57161,19 @@
         <v>24</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="BG251" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="BI251" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="BJ251" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="BN251" s="1" t="s">
         <v>117</v>
@@ -57289,13 +57188,13 @@
         <v>163</v>
       </c>
       <c r="BS251" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="BT251" s="3">
         <v>36284</v>
       </c>
       <c r="BU251" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="BV251" s="1" t="s">
         <v>121</v>
@@ -57319,22 +57218,22 @@
         <v>102</v>
       </c>
       <c r="CD251" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="CE251" s="1" t="s">
+        <v>3068</v>
+      </c>
+      <c r="CF251" s="1" t="s">
+        <v>3069</v>
+      </c>
+      <c r="CH251" s="1" t="s">
         <v>3070</v>
       </c>
-      <c r="CE251" s="1" t="s">
+      <c r="CI251" s="1" t="s">
         <v>3071</v>
       </c>
-      <c r="CF251" s="1" t="s">
+      <c r="CJ251" s="1" t="s">
         <v>3072</v>
-      </c>
-      <c r="CH251" s="1" t="s">
-        <v>3073</v>
-      </c>
-      <c r="CI251" s="1" t="s">
-        <v>3074</v>
-      </c>
-      <c r="CJ251" s="1" t="s">
-        <v>3075</v>
       </c>
     </row>
     <row r="252" spans="1:88" x14ac:dyDescent="0.25">
@@ -57369,16 +57268,16 @@
         <v>97</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="L252" s="1" t="s">
         <v>134</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>101</v>
@@ -57411,7 +57310,7 @@
         <v>45239</v>
       </c>
       <c r="AD252" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="AF252" s="1" t="s">
         <v>107</v>
@@ -57471,10 +57370,10 @@
         <v>23</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="BN252" s="1" t="s">
         <v>117</v>
@@ -57483,7 +57382,7 @@
         <v>106</v>
       </c>
       <c r="BU252" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="BV252" s="1" t="s">
         <v>121</v>
@@ -57507,13 +57406,13 @@
         <v>416</v>
       </c>
       <c r="CE252" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="CF252" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="CH252" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="CI252" s="1" t="s">
         <v>129</v>
@@ -57551,16 +57450,16 @@
         <v>1250</v>
       </c>
       <c r="J253" s="1" t="s">
+        <v>3081</v>
+      </c>
+      <c r="K253" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>3083</v>
+      </c>
+      <c r="N253" s="1" t="s">
         <v>3084</v>
-      </c>
-      <c r="K253" s="1" t="s">
-        <v>3085</v>
-      </c>
-      <c r="L253" s="1" t="s">
-        <v>3086</v>
-      </c>
-      <c r="N253" s="1" t="s">
-        <v>3087</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>101</v>
@@ -57596,7 +57495,7 @@
         <v>1253</v>
       </c>
       <c r="AH253" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="AI253" s="1" t="s">
         <v>102</v>
@@ -57644,13 +57543,13 @@
         <v>24</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="BN253" s="1" t="s">
         <v>117</v>
@@ -57659,7 +57558,7 @@
         <v>106</v>
       </c>
       <c r="BU253" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="BV253" s="1" t="s">
         <v>121</v>
@@ -57680,16 +57579,16 @@
         <v>102</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="CF253" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="CH253" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="CI253" s="1" t="s">
         <v>129</v>
@@ -57730,13 +57629,13 @@
         <v>97</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>101</v>
@@ -57820,13 +57719,13 @@
         <v>24</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="BN254" s="1" t="s">
         <v>117</v>
@@ -57838,13 +57737,13 @@
         <v>228</v>
       </c>
       <c r="BS254" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="BT254" s="3">
         <v>1026</v>
       </c>
       <c r="BU254" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="BV254" s="1" t="s">
         <v>121</v>
@@ -57865,16 +57764,16 @@
         <v>102</v>
       </c>
       <c r="CD254" s="1" t="s">
+        <v>3099</v>
+      </c>
+      <c r="CE254" s="1" t="s">
+        <v>3100</v>
+      </c>
+      <c r="CF254" s="1" t="s">
+        <v>3101</v>
+      </c>
+      <c r="CH254" s="1" t="s">
         <v>3102</v>
-      </c>
-      <c r="CE254" s="1" t="s">
-        <v>3103</v>
-      </c>
-      <c r="CF254" s="1" t="s">
-        <v>3104</v>
-      </c>
-      <c r="CH254" s="1" t="s">
-        <v>3105</v>
       </c>
       <c r="CI254" s="1" t="s">
         <v>129</v>
@@ -57915,13 +57814,13 @@
         <v>97</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>101</v>
@@ -58005,13 +57904,13 @@
         <v>24</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="BN255" s="1" t="s">
         <v>117</v>
@@ -58020,7 +57919,7 @@
         <v>106</v>
       </c>
       <c r="BU255" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="BV255" s="1" t="s">
         <v>121</v>
@@ -58044,13 +57943,13 @@
         <v>840</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="CF255" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="CH255" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="CI255" s="1" t="s">
         <v>129</v>
@@ -58091,13 +57990,13 @@
         <v>97</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>101</v>
@@ -58181,13 +58080,13 @@
         <v>24</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="BI256" s="1" t="s">
         <v>911</v>
@@ -58202,13 +58101,13 @@
         <v>118</v>
       </c>
       <c r="BS256" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="BT256" s="3">
         <v>2114</v>
       </c>
       <c r="BU256" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="BV256" s="1" t="s">
         <v>121</v>
@@ -58229,16 +58128,16 @@
         <v>102</v>
       </c>
       <c r="CD256" s="1" t="s">
+        <v>3119</v>
+      </c>
+      <c r="CE256" s="1" t="s">
+        <v>3120</v>
+      </c>
+      <c r="CF256" s="1" t="s">
+        <v>3121</v>
+      </c>
+      <c r="CH256" s="1" t="s">
         <v>3122</v>
-      </c>
-      <c r="CE256" s="1" t="s">
-        <v>3123</v>
-      </c>
-      <c r="CF256" s="1" t="s">
-        <v>3124</v>
-      </c>
-      <c r="CH256" s="1" t="s">
-        <v>3125</v>
       </c>
       <c r="CI256" s="1" t="s">
         <v>916</v>
@@ -58279,13 +58178,13 @@
         <v>97</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>101</v>
@@ -58369,13 +58268,13 @@
         <v>24</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="BN257" s="1" t="s">
         <v>117</v>
@@ -58384,7 +58283,7 @@
         <v>106</v>
       </c>
       <c r="BU257" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="BV257" s="1" t="s">
         <v>121</v>
@@ -58405,16 +58304,16 @@
         <v>102</v>
       </c>
       <c r="CD257" s="1" t="s">
+        <v>3129</v>
+      </c>
+      <c r="CE257" s="1" t="s">
+        <v>3130</v>
+      </c>
+      <c r="CF257" s="1" t="s">
+        <v>3131</v>
+      </c>
+      <c r="CH257" s="1" t="s">
         <v>3132</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>3133</v>
-      </c>
-      <c r="CF257" s="1" t="s">
-        <v>3134</v>
-      </c>
-      <c r="CH257" s="1" t="s">
-        <v>3135</v>
       </c>
       <c r="CI257" s="1" t="s">
         <v>129</v>
@@ -58455,13 +58354,13 @@
         <v>97</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>101</v>
@@ -58545,13 +58444,13 @@
         <v>24</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="BG258" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="BI258" s="1" t="s">
         <v>911</v>
@@ -58566,13 +58465,13 @@
         <v>103</v>
       </c>
       <c r="BS258" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="BT258" s="3">
         <v>2400</v>
       </c>
       <c r="BU258" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="BV258" s="1" t="s">
         <v>121</v>
@@ -58593,16 +58492,16 @@
         <v>102</v>
       </c>
       <c r="CD258" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="CE258" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="CF258" s="1" t="s">
+        <v>3142</v>
+      </c>
+      <c r="CH258" s="1" t="s">
         <v>3143</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>3144</v>
-      </c>
-      <c r="CF258" s="1" t="s">
-        <v>3145</v>
-      </c>
-      <c r="CH258" s="1" t="s">
-        <v>3146</v>
       </c>
       <c r="CI258" s="1" t="s">
         <v>916</v>
@@ -58640,16 +58539,16 @@
         <v>1250</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>101</v>
@@ -58736,13 +58635,13 @@
         <v>24</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="BG259" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="BI259" s="1" t="s">
         <v>911</v>
@@ -58754,7 +58653,7 @@
         <v>106</v>
       </c>
       <c r="BU259" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="BV259" s="1" t="s">
         <v>121</v>
@@ -58775,16 +58674,16 @@
         <v>102</v>
       </c>
       <c r="CD259" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="CE259" s="1" t="s">
         <v>878</v>
       </c>
       <c r="CF259" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="CH259" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="CI259" s="1" t="s">
         <v>916</v>
@@ -58825,10 +58724,10 @@
         <v>97</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>101</v>
@@ -58903,7 +58802,7 @@
         <v>24</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="BN260" s="1" t="s">
         <v>117</v>
@@ -58933,7 +58832,7 @@
         <v>102</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="CH260" s="1" t="s">
         <v>129</v>
@@ -58977,13 +58876,13 @@
         <v>97</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>101</v>
@@ -59067,13 +58966,13 @@
         <v>24</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="BG261" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="BN261" s="1" t="s">
         <v>117</v>
@@ -59082,7 +58981,7 @@
         <v>106</v>
       </c>
       <c r="BU261" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="BV261" s="1" t="s">
         <v>121</v>
@@ -59103,16 +59002,16 @@
         <v>102</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="CE261" s="1" t="s">
         <v>1558</v>
       </c>
       <c r="CF261" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="CH261" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="CI261" s="1" t="s">
         <v>129</v>
@@ -59153,13 +59052,13 @@
         <v>97</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>101</v>
@@ -59243,13 +59142,13 @@
         <v>24</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="BG262" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="BI262" s="1" t="s">
         <v>569</v>
@@ -59261,7 +59160,7 @@
         <v>106</v>
       </c>
       <c r="BU262" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="BV262" s="1" t="s">
         <v>121</v>
@@ -59282,16 +59181,16 @@
         <v>102</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="CE262" s="1" t="s">
         <v>1477</v>
       </c>
       <c r="CF262" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="CH262" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="CI262" s="1" t="s">
         <v>576</v>
@@ -59332,13 +59231,13 @@
         <v>97</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>101</v>
@@ -59422,13 +59321,13 @@
         <v>24</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="BG263" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="BI263" s="1" t="s">
         <v>2133</v>
@@ -59440,7 +59339,7 @@
         <v>106</v>
       </c>
       <c r="BU263" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="BV263" s="1" t="s">
         <v>121</v>
@@ -59461,16 +59360,16 @@
         <v>102</v>
       </c>
       <c r="CD263" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="CE263" s="1" t="s">
         <v>1616</v>
       </c>
       <c r="CF263" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="CH263" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="CI263" s="1" t="s">
         <v>2136</v>
@@ -59511,13 +59410,13 @@
         <v>97</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>101</v>
@@ -59601,13 +59500,13 @@
         <v>24</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="BG264" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="BN264" s="1" t="s">
         <v>117</v>
@@ -59616,7 +59515,7 @@
         <v>106</v>
       </c>
       <c r="BU264" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="BV264" s="1" t="s">
         <v>121</v>
@@ -59640,13 +59539,13 @@
         <v>1437</v>
       </c>
       <c r="CE264" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="CF264" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="CH264" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="CI264" s="1" t="s">
         <v>129</v>
@@ -59687,13 +59586,13 @@
         <v>97</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>101</v>
@@ -59777,13 +59676,13 @@
         <v>24</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="BG265" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="BN265" s="1" t="s">
         <v>117</v>
@@ -59792,7 +59691,7 @@
         <v>106</v>
       </c>
       <c r="BU265" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="BV265" s="1" t="s">
         <v>121</v>
@@ -59813,16 +59712,16 @@
         <v>102</v>
       </c>
       <c r="CD265" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="CE265" s="1" t="s">
         <v>1616</v>
       </c>
       <c r="CF265" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="CH265" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="CI265" s="1" t="s">
         <v>129</v>
@@ -59863,16 +59762,16 @@
         <v>97</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="L266" s="1" t="s">
         <v>134</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>101</v>
@@ -59905,7 +59804,7 @@
         <v>45291</v>
       </c>
       <c r="AD266" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="AF266" s="1" t="s">
         <v>107</v>
@@ -59965,10 +59864,10 @@
         <v>23</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="BN266" s="1" t="s">
         <v>117</v>
@@ -59977,7 +59876,7 @@
         <v>106</v>
       </c>
       <c r="BU266" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="BV266" s="1" t="s">
         <v>121</v>
@@ -60001,13 +59900,13 @@
         <v>102</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="CE266" s="1" t="s">
         <v>662</v>
       </c>
       <c r="CF266" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="CH266" s="1" t="s">
         <v>1625</v>
@@ -60051,16 +59950,16 @@
         <v>97</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="L267" s="1" t="s">
         <v>134</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>101</v>
@@ -60093,7 +59992,7 @@
         <v>45311</v>
       </c>
       <c r="AD267" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="AF267" s="1" t="s">
         <v>107</v>
@@ -60150,10 +60049,10 @@
         <v>24</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="BN267" s="1" t="s">
         <v>117</v>
@@ -60162,7 +60061,7 @@
         <v>106</v>
       </c>
       <c r="BU267" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="BV267" s="1" t="s">
         <v>121</v>
@@ -60183,13 +60082,13 @@
         <v>102</v>
       </c>
       <c r="CD267" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="CE267" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="CF267" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="CH267" s="1" t="s">
         <v>129</v>
@@ -60233,13 +60132,13 @@
         <v>97</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>101</v>
@@ -60323,13 +60222,13 @@
         <v>24</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="BG268" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="BN268" s="1" t="s">
         <v>117</v>
@@ -60338,7 +60237,7 @@
         <v>106</v>
       </c>
       <c r="BU268" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="BV268" s="1" t="s">
         <v>121</v>
@@ -60365,10 +60264,10 @@
         <v>902</v>
       </c>
       <c r="CF268" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="CH268" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="CI268" s="1" t="s">
         <v>129</v>
@@ -60409,13 +60308,13 @@
         <v>97</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>101</v>
@@ -60502,19 +60401,19 @@
         <v>24</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="BG269" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="BN269" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU269" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="BV269" s="1" t="s">
         <v>121</v>
@@ -60538,13 +60437,13 @@
         <v>1973</v>
       </c>
       <c r="CE269" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="CF269" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="CH269" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="CI269" s="1" t="s">
         <v>129</v>
@@ -60585,13 +60484,13 @@
         <v>97</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>101</v>
@@ -60627,10 +60526,10 @@
         <v>107</v>
       </c>
       <c r="AG270" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="AH270" s="1" t="s">
         <v>2346</v>
-      </c>
-      <c r="AH270" s="1" t="s">
-        <v>2347</v>
       </c>
       <c r="AJ270" s="1" t="s">
         <v>110</v>
@@ -60675,13 +60574,13 @@
         <v>24</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="BG270" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="BN270" s="1" t="s">
         <v>117</v>
@@ -60693,13 +60592,13 @@
         <v>118</v>
       </c>
       <c r="BS270" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="BT270" s="3">
         <v>45315</v>
       </c>
       <c r="BU270" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="BV270" s="1" t="s">
         <v>121</v>
@@ -60720,16 +60619,16 @@
         <v>102</v>
       </c>
       <c r="CD270" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="CE270" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CF270" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="CH270" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="CI270" s="1" t="s">
         <v>129</v>
@@ -60770,13 +60669,13 @@
         <v>97</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>101</v>
@@ -60860,13 +60759,13 @@
         <v>24</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="BG271" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="BN271" s="1" t="s">
         <v>117</v>
@@ -60878,13 +60777,13 @@
         <v>118</v>
       </c>
       <c r="BS271" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="BT271" s="3">
         <v>7809</v>
       </c>
       <c r="BU271" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="BV271" s="1" t="s">
         <v>121</v>
@@ -60908,13 +60807,13 @@
         <v>249</v>
       </c>
       <c r="CE271" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="CF271" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="CH271" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="CI271" s="1" t="s">
         <v>129</v>
@@ -60928,10 +60827,10 @@
         <v>88</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1203</v>
@@ -60946,7 +60845,7 @@
         <v>94</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>1203</v>
@@ -60955,10 +60854,10 @@
         <v>313</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>101</v>
@@ -61000,7 +60899,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="AO272" s="1">
         <v>0</v>
@@ -61033,7 +60932,7 @@
         <v>23</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="BN272" s="1" t="s">
         <v>117</v>
@@ -61054,7 +60953,7 @@
         <v>102</v>
       </c>
       <c r="CD272" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="CH272" s="1" t="s">
         <v>129</v>
@@ -61071,10 +60970,10 @@
         <v>88</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>1203</v>
@@ -61089,7 +60988,7 @@
         <v>94</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>1203</v>
@@ -61098,13 +60997,13 @@
         <v>313</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>101</v>
@@ -61155,7 +61054,7 @@
         <v>0</v>
       </c>
       <c r="AN273" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="AO273" s="1">
         <v>0</v>
@@ -61191,19 +61090,19 @@
         <v>24</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="BG273" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH273" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="BN273" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU273" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="BV273" s="1" t="s">
         <v>121</v>
@@ -61230,10 +61129,10 @@
         <v>1034</v>
       </c>
       <c r="CF273" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="CH273" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="CI273" s="1" t="s">
         <v>129</v>
@@ -61247,10 +61146,10 @@
         <v>88</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>1203</v>
@@ -61265,7 +61164,7 @@
         <v>94</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>1203</v>
@@ -61274,13 +61173,13 @@
         <v>313</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>101</v>
@@ -61331,7 +61230,7 @@
         <v>0</v>
       </c>
       <c r="AN274" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="AO274" s="1">
         <v>0</v>
@@ -61367,19 +61266,19 @@
         <v>24</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="BG274" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH274" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="BN274" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU274" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="BV274" s="1" t="s">
         <v>121</v>
@@ -61400,16 +61299,16 @@
         <v>102</v>
       </c>
       <c r="CD274" s="1" t="s">
+        <v>3273</v>
+      </c>
+      <c r="CE274" s="1" t="s">
+        <v>3274</v>
+      </c>
+      <c r="CF274" s="1" t="s">
+        <v>3275</v>
+      </c>
+      <c r="CH274" s="1" t="s">
         <v>3276</v>
-      </c>
-      <c r="CE274" s="1" t="s">
-        <v>3277</v>
-      </c>
-      <c r="CF274" s="1" t="s">
-        <v>3278</v>
-      </c>
-      <c r="CH274" s="1" t="s">
-        <v>3279</v>
       </c>
       <c r="CI274" s="1" t="s">
         <v>129</v>
@@ -61423,10 +61322,10 @@
         <v>88</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1203</v>
@@ -61441,7 +61340,7 @@
         <v>94</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>1203</v>
@@ -61450,13 +61349,13 @@
         <v>313</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>101</v>
@@ -61543,19 +61442,19 @@
         <v>24</v>
       </c>
       <c r="BD275" s="1" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="BG275" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH275" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="BN275" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU275" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="BV275" s="1" t="s">
         <v>121</v>
@@ -61576,7 +61475,7 @@
         <v>102</v>
       </c>
       <c r="CD275" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="CE275" s="1" t="s">
         <v>573</v>
@@ -61585,7 +61484,7 @@
         <v>479</v>
       </c>
       <c r="CH275" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="CI275" s="1" t="s">
         <v>129</v>
@@ -61599,10 +61498,10 @@
         <v>88</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1203</v>
@@ -61617,7 +61516,7 @@
         <v>94</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>1203</v>
@@ -61626,13 +61525,13 @@
         <v>313</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>101</v>
@@ -61686,7 +61585,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="AO276" s="1">
         <v>0</v>
@@ -61722,19 +61621,19 @@
         <v>24</v>
       </c>
       <c r="BD276" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="BG276" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH276" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="BN276" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU276" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="BV276" s="1" t="s">
         <v>121</v>
@@ -61758,13 +61657,13 @@
         <v>462</v>
       </c>
       <c r="CE276" s="1" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="CF276" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="CH276" s="1" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="CI276" s="1" t="s">
         <v>129</v>
@@ -61778,10 +61677,10 @@
         <v>88</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1203</v>
@@ -61796,7 +61695,7 @@
         <v>94</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>1203</v>
@@ -61805,13 +61704,13 @@
         <v>313</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="O277" s="1" t="s">
         <v>101</v>
@@ -61898,19 +61797,19 @@
         <v>24</v>
       </c>
       <c r="BD277" s="1" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="BG277" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH277" s="1" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="BN277" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU277" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="BV277" s="1" t="s">
         <v>121</v>
@@ -61931,16 +61830,16 @@
         <v>102</v>
       </c>
       <c r="CD277" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="CE277" s="1" t="s">
         <v>584</v>
       </c>
       <c r="CF277" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="CH277" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="CI277" s="1" t="s">
         <v>129</v>
@@ -61954,10 +61853,10 @@
         <v>88</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>1203</v>
@@ -61972,7 +61871,7 @@
         <v>94</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>1203</v>
@@ -61981,13 +61880,13 @@
         <v>313</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>101</v>
@@ -62041,7 +61940,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="1" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="AO278" s="1">
         <v>0</v>
@@ -62077,19 +61976,19 @@
         <v>24</v>
       </c>
       <c r="BD278" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="BG278" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="BN278" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU278" s="1" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="BV278" s="1" t="s">
         <v>121</v>
@@ -62110,16 +62009,16 @@
         <v>102</v>
       </c>
       <c r="CD278" s="1" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="CE278" s="1" t="s">
         <v>964</v>
       </c>
       <c r="CF278" s="1" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="CH278" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="CI278" s="1" t="s">
         <v>129</v>
@@ -62133,10 +62032,10 @@
         <v>88</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1203</v>
@@ -62151,7 +62050,7 @@
         <v>94</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>1203</v>
@@ -62160,13 +62059,13 @@
         <v>313</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="O279" s="1" t="s">
         <v>101</v>
@@ -62220,7 +62119,7 @@
         <v>0</v>
       </c>
       <c r="AN279" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="AO279" s="1">
         <v>0</v>
@@ -62256,19 +62155,19 @@
         <v>24</v>
       </c>
       <c r="BD279" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="BG279" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH279" s="1" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="BN279" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU279" s="1" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="BV279" s="1" t="s">
         <v>121</v>
@@ -62292,13 +62191,13 @@
         <v>950</v>
       </c>
       <c r="CE279" s="1" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="CF279" s="1" t="s">
-        <v>3324</v>
+        <v>3321</v>
       </c>
       <c r="CH279" s="1" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="CI279" s="1" t="s">
         <v>129</v>
@@ -62312,10 +62211,10 @@
         <v>88</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1203</v>
@@ -62330,7 +62229,7 @@
         <v>94</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>1203</v>
@@ -62339,13 +62238,13 @@
         <v>313</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="O280" s="1" t="s">
         <v>101</v>
@@ -62396,7 +62295,7 @@
         <v>0</v>
       </c>
       <c r="AN280" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="AO280" s="1">
         <v>0</v>
@@ -62429,19 +62328,19 @@
         <v>24</v>
       </c>
       <c r="BD280" s="1" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="BG280" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH280" s="1" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="BN280" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU280" s="1" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="BV280" s="1" t="s">
         <v>121</v>
@@ -62459,16 +62358,16 @@
         <v>102</v>
       </c>
       <c r="CD280" s="1" t="s">
+        <v>3330</v>
+      </c>
+      <c r="CE280" s="1" t="s">
+        <v>3331</v>
+      </c>
+      <c r="CF280" s="1" t="s">
+        <v>3332</v>
+      </c>
+      <c r="CH280" s="1" t="s">
         <v>3333</v>
-      </c>
-      <c r="CE280" s="1" t="s">
-        <v>3334</v>
-      </c>
-      <c r="CF280" s="1" t="s">
-        <v>3335</v>
-      </c>
-      <c r="CH280" s="1" t="s">
-        <v>3336</v>
       </c>
       <c r="CI280" s="1" t="s">
         <v>129</v>
@@ -62482,10 +62381,10 @@
         <v>88</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>1203</v>
@@ -62500,7 +62399,7 @@
         <v>94</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>1203</v>
@@ -62509,13 +62408,13 @@
         <v>313</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="N281" s="1" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="O281" s="1" t="s">
         <v>101</v>
@@ -62599,19 +62498,19 @@
         <v>24</v>
       </c>
       <c r="BD281" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="BG281" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH281" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="BN281" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU281" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="BV281" s="1" t="s">
         <v>121</v>
@@ -62632,16 +62531,16 @@
         <v>2069</v>
       </c>
       <c r="CD281" s="1" t="s">
+        <v>3340</v>
+      </c>
+      <c r="CE281" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="CF281" s="1" t="s">
+        <v>3342</v>
+      </c>
+      <c r="CH281" s="1" t="s">
         <v>3343</v>
-      </c>
-      <c r="CE281" s="1" t="s">
-        <v>3344</v>
-      </c>
-      <c r="CF281" s="1" t="s">
-        <v>3345</v>
-      </c>
-      <c r="CH281" s="1" t="s">
-        <v>3346</v>
       </c>
       <c r="CI281" s="1" t="s">
         <v>129</v>
@@ -62655,10 +62554,10 @@
         <v>88</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1203</v>
@@ -62673,7 +62572,7 @@
         <v>94</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>1203</v>
@@ -62682,13 +62581,13 @@
         <v>313</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
       <c r="O282" s="1" t="s">
         <v>101</v>
@@ -62742,7 +62641,7 @@
         <v>0</v>
       </c>
       <c r="AN282" s="1" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="AO282" s="1">
         <v>0</v>
@@ -62778,19 +62677,19 @@
         <v>24</v>
       </c>
       <c r="BD282" s="1" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
       <c r="BG282" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH282" s="1" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="BN282" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU282" s="1" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="BV282" s="1" t="s">
         <v>121</v>
@@ -62811,16 +62710,16 @@
         <v>102</v>
       </c>
       <c r="CD282" s="1" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
       <c r="CE282" s="1" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
       <c r="CF282" s="1" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="CH282" s="1" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="CI282" s="1" t="s">
         <v>129</v>
@@ -62834,10 +62733,10 @@
         <v>88</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1203</v>
@@ -62852,7 +62751,7 @@
         <v>94</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>1203</v>
@@ -62861,13 +62760,13 @@
         <v>313</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="O283" s="1" t="s">
         <v>101</v>
@@ -62960,7 +62859,7 @@
         <v>24</v>
       </c>
       <c r="BD283" s="1" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
       <c r="BG283" s="1" t="s">
         <v>114</v>
@@ -62987,10 +62886,10 @@
         <v>102</v>
       </c>
       <c r="CD283" s="1" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="CE283" s="1" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="CF283" s="1" t="s">
         <v>215</v>
@@ -63010,10 +62909,10 @@
         <v>88</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>1203</v>
@@ -63028,7 +62927,7 @@
         <v>94</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>1203</v>
@@ -63037,13 +62936,13 @@
         <v>313</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
       <c r="O284" s="1" t="s">
         <v>101</v>
@@ -63094,7 +62993,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="1" t="s">
-        <v>3365</v>
+        <v>3362</v>
       </c>
       <c r="AO284" s="1">
         <v>0</v>
@@ -63130,19 +63029,19 @@
         <v>24</v>
       </c>
       <c r="BD284" s="1" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
       <c r="BG284" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH284" s="1" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="BN284" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU284" s="1" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="BV284" s="1" t="s">
         <v>121</v>
@@ -63163,16 +63062,16 @@
         <v>102</v>
       </c>
       <c r="CD284" s="1" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="CE284" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="CF284" s="1" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="CH284" s="1" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="CI284" s="1" t="s">
         <v>129</v>
@@ -63186,10 +63085,10 @@
         <v>88</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>1203</v>
@@ -63204,7 +63103,7 @@
         <v>94</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="I285" s="1" t="s">
         <v>1203</v>
@@ -63213,13 +63112,13 @@
         <v>313</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="N285" s="1" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="O285" s="1" t="s">
         <v>101</v>
@@ -63249,7 +63148,7 @@
         <v>107</v>
       </c>
       <c r="AG285" s="1" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="AH285" s="1" t="s">
         <v>369</v>
@@ -63264,7 +63163,7 @@
         <v>0</v>
       </c>
       <c r="AN285" s="1" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="AO285" s="1">
         <v>0</v>
@@ -63294,19 +63193,19 @@
         <v>24</v>
       </c>
       <c r="BD285" s="1" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="BG285" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH285" s="1" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="BN285" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU285" s="1" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
       <c r="BV285" s="1" t="s">
         <v>121</v>
@@ -63324,16 +63223,16 @@
         <v>102</v>
       </c>
       <c r="CD285" s="1" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
       <c r="CE285" s="1" t="s">
         <v>307</v>
       </c>
       <c r="CF285" s="1" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
       <c r="CH285" s="1" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="CI285" s="1" t="s">
         <v>129</v>
@@ -63347,10 +63246,10 @@
         <v>88</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>1203</v>
@@ -63365,7 +63264,7 @@
         <v>94</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="I286" s="1" t="s">
         <v>1203</v>
@@ -63374,13 +63273,13 @@
         <v>313</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
       <c r="N286" s="1" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="O286" s="1" t="s">
         <v>101</v>
@@ -63464,19 +63363,19 @@
         <v>24</v>
       </c>
       <c r="BD286" s="1" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="BG286" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH286" s="1" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="BN286" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU286" s="1" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
       <c r="BV286" s="1" t="s">
         <v>121</v>
@@ -63494,16 +63393,16 @@
         <v>102</v>
       </c>
       <c r="CD286" s="1" t="s">
+        <v>3385</v>
+      </c>
+      <c r="CE286" s="1" t="s">
+        <v>3386</v>
+      </c>
+      <c r="CF286" s="1" t="s">
+        <v>3387</v>
+      </c>
+      <c r="CH286" s="1" t="s">
         <v>3388</v>
-      </c>
-      <c r="CE286" s="1" t="s">
-        <v>3389</v>
-      </c>
-      <c r="CF286" s="1" t="s">
-        <v>3390</v>
-      </c>
-      <c r="CH286" s="1" t="s">
-        <v>3391</v>
       </c>
       <c r="CI286" s="1" t="s">
         <v>129</v>
@@ -63517,10 +63416,10 @@
         <v>88</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>1203</v>
@@ -63535,7 +63434,7 @@
         <v>94</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="I287" s="1" t="s">
         <v>1203</v>
@@ -63544,13 +63443,13 @@
         <v>313</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
       <c r="N287" s="1" t="s">
-        <v>3394</v>
+        <v>3391</v>
       </c>
       <c r="O287" s="1" t="s">
         <v>101</v>
@@ -63637,19 +63536,19 @@
         <v>24</v>
       </c>
       <c r="BD287" s="1" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="BG287" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH287" s="1" t="s">
-        <v>3396</v>
+        <v>3393</v>
       </c>
       <c r="BN287" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU287" s="1" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
       <c r="BV287" s="1" t="s">
         <v>121</v>
@@ -63667,16 +63566,16 @@
         <v>102</v>
       </c>
       <c r="CD287" s="1" t="s">
+        <v>3395</v>
+      </c>
+      <c r="CE287" s="1" t="s">
+        <v>3396</v>
+      </c>
+      <c r="CF287" s="1" t="s">
+        <v>3397</v>
+      </c>
+      <c r="CH287" s="1" t="s">
         <v>3398</v>
-      </c>
-      <c r="CE287" s="1" t="s">
-        <v>3399</v>
-      </c>
-      <c r="CF287" s="1" t="s">
-        <v>3400</v>
-      </c>
-      <c r="CH287" s="1" t="s">
-        <v>3401</v>
       </c>
       <c r="CI287" s="1" t="s">
         <v>129</v>
@@ -63690,10 +63589,10 @@
         <v>88</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>1203</v>
@@ -63708,7 +63607,7 @@
         <v>94</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="I288" s="1" t="s">
         <v>1203</v>
@@ -63717,10 +63616,10 @@
         <v>313</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="O288" s="1" t="s">
         <v>101</v>
@@ -63759,7 +63658,7 @@
         <v>0</v>
       </c>
       <c r="AN288" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="AO288" s="1">
         <v>0</v>
@@ -63792,7 +63691,7 @@
         <v>23</v>
       </c>
       <c r="BD288" s="1" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="BN288" s="1" t="s">
         <v>117</v>
@@ -63813,7 +63712,7 @@
         <v>102</v>
       </c>
       <c r="CD288" s="1" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="CH288" s="1" t="s">
         <v>129</v>
@@ -63830,10 +63729,10 @@
         <v>88</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>1203</v>
@@ -63848,7 +63747,7 @@
         <v>94</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="I289" s="1" t="s">
         <v>1203</v>
@@ -63857,13 +63756,13 @@
         <v>313</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="N289" s="1" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="O289" s="1" t="s">
         <v>101</v>
@@ -63917,7 +63816,7 @@
         <v>0</v>
       </c>
       <c r="AN289" s="1" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="AO289" s="1">
         <v>0</v>
@@ -63953,19 +63852,19 @@
         <v>24</v>
       </c>
       <c r="BD289" s="1" t="s">
-        <v>3409</v>
+        <v>3406</v>
       </c>
       <c r="BG289" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH289" s="1" t="s">
-        <v>3410</v>
+        <v>3407</v>
       </c>
       <c r="BN289" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU289" s="1" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="BV289" s="1" t="s">
         <v>121</v>
@@ -63992,10 +63891,10 @@
         <v>1437</v>
       </c>
       <c r="CF289" s="1" t="s">
-        <v>3412</v>
+        <v>3409</v>
       </c>
       <c r="CH289" s="1" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
       <c r="CI289" s="1" t="s">
         <v>129</v>
@@ -64009,10 +63908,10 @@
         <v>88</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>1203</v>
@@ -64027,7 +63926,7 @@
         <v>94</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="I290" s="1" t="s">
         <v>1203</v>
@@ -64036,13 +63935,13 @@
         <v>313</v>
       </c>
       <c r="K290" s="1" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="N290" s="1" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
       <c r="O290" s="1" t="s">
         <v>101</v>
@@ -64093,7 +63992,7 @@
         <v>0</v>
       </c>
       <c r="AN290" s="1" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
       <c r="AO290" s="1">
         <v>0</v>
@@ -64126,19 +64025,19 @@
         <v>24</v>
       </c>
       <c r="BD290" s="1" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="BG290" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH290" s="1" t="s">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="BN290" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU290" s="1" t="s">
-        <v>3420</v>
+        <v>3417</v>
       </c>
       <c r="BV290" s="1" t="s">
         <v>121</v>
@@ -64159,16 +64058,16 @@
         <v>102</v>
       </c>
       <c r="CD290" s="1" t="s">
-        <v>3421</v>
+        <v>3418</v>
       </c>
       <c r="CE290" s="1" t="s">
         <v>1545</v>
       </c>
       <c r="CF290" s="1" t="s">
-        <v>3422</v>
+        <v>3419</v>
       </c>
       <c r="CH290" s="1" t="s">
-        <v>3423</v>
+        <v>3420</v>
       </c>
       <c r="CI290" s="1" t="s">
         <v>129</v>
@@ -64178,6 +64077,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CJ290" xr:uid="{3265682A-6B4C-4B13-895F-0ECFB43A8908}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>